--- a/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
@@ -415,28 +415,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.977330355337203</v>
+        <v>3.97733035533721</v>
       </c>
       <c r="D2">
-        <v>4.686401589619447</v>
+        <v>4.686401589619385</v>
       </c>
       <c r="E2">
-        <v>32.7370711047349</v>
+        <v>32.73707110473503</v>
       </c>
       <c r="F2">
-        <v>32.72105959422962</v>
+        <v>32.72105959422984</v>
       </c>
       <c r="G2">
-        <v>25.67909744119203</v>
+        <v>25.67909744119218</v>
       </c>
       <c r="H2">
-        <v>24.73830432440224</v>
+        <v>24.73830432440239</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>101.5470005517451</v>
+        <v>101.5470005517453</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.584330063653874</v>
+        <v>3.584330063653956</v>
       </c>
       <c r="D3">
-        <v>4.095640083118292</v>
+        <v>4.095640083118289</v>
       </c>
       <c r="E3">
-        <v>29.92287543412538</v>
+        <v>29.92287543412541</v>
       </c>
       <c r="F3">
-        <v>29.03030057285601</v>
+        <v>29.03030057285627</v>
       </c>
       <c r="G3">
-        <v>22.65251204096157</v>
+        <v>22.65251204096178</v>
       </c>
       <c r="H3">
-        <v>21.92934947105676</v>
+        <v>21.92934947105694</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>93.97041972319012</v>
+        <v>93.97041972319008</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.348212074519908</v>
+        <v>3.34821207451982</v>
       </c>
       <c r="D4">
-        <v>3.746220180728124</v>
+        <v>3.746220180728059</v>
       </c>
       <c r="E4">
-        <v>28.1829231639266</v>
+        <v>28.18292316392653</v>
       </c>
       <c r="F4">
-        <v>26.83099710593889</v>
+        <v>26.83099710593876</v>
       </c>
       <c r="G4">
-        <v>20.84726293873498</v>
+        <v>20.84726293873485</v>
       </c>
       <c r="H4">
-        <v>20.24683972783235</v>
+        <v>20.24683972783227</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>89.1618158147607</v>
+        <v>89.16181581476063</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.252650864731969</v>
+        <v>3.252650864732096</v>
       </c>
       <c r="D5">
-        <v>3.606157049886926</v>
+        <v>3.606157049886929</v>
       </c>
       <c r="E5">
-        <v>27.46754893499842</v>
+        <v>27.46754893499832</v>
       </c>
       <c r="F5">
-        <v>25.94718008671077</v>
+        <v>25.94718008671084</v>
       </c>
       <c r="G5">
-        <v>20.12112592833758</v>
+        <v>20.12112592833765</v>
       </c>
       <c r="H5">
-        <v>19.56827392368456</v>
+        <v>19.56827392368461</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>87.15831296614193</v>
+        <v>87.15831296614201</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.236806676496554</v>
+        <v>3.236806676496258</v>
       </c>
       <c r="D6">
-        <v>3.58301500462523</v>
+        <v>3.583015004625366</v>
       </c>
       <c r="E6">
-        <v>27.34829771797468</v>
+        <v>27.34829771797471</v>
       </c>
       <c r="F6">
-        <v>25.80107189312094</v>
+        <v>25.80107189312118</v>
       </c>
       <c r="G6">
-        <v>20.00103643030194</v>
+        <v>20.00103643030218</v>
       </c>
       <c r="H6">
-        <v>19.45594165218195</v>
+        <v>19.45594165218218</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>86.82286147512683</v>
+        <v>86.82286147512698</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.346921380507521</v>
+        <v>3.346921380507615</v>
       </c>
       <c r="D7">
-        <v>3.744322984163251</v>
+        <v>3.74432298416312</v>
       </c>
       <c r="E7">
-        <v>28.17330478553306</v>
+        <v>28.17330478553304</v>
       </c>
       <c r="F7">
-        <v>26.81903210767727</v>
+        <v>26.81903210767739</v>
       </c>
       <c r="G7">
-        <v>20.83743567076817</v>
+        <v>20.83743567076824</v>
       </c>
       <c r="H7">
-        <v>20.23766364530594</v>
+        <v>20.23766364530599</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>89.13497923325008</v>
+        <v>89.13497923325023</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.840306365266456</v>
+        <v>3.840306365266483</v>
       </c>
       <c r="D8">
-        <v>4.47924537856249</v>
+        <v>4.479245378562627</v>
       </c>
       <c r="E8">
-        <v>31.76695110235394</v>
+        <v>31.76695110235388</v>
       </c>
       <c r="F8">
-        <v>31.4314661174793</v>
+        <v>31.43146611747931</v>
       </c>
       <c r="G8">
-        <v>24.62179291209088</v>
+        <v>24.62179291209095</v>
       </c>
       <c r="H8">
-        <v>23.75852241969155</v>
+        <v>23.75852241969159</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>98.96398435970643</v>
+        <v>98.9639843597067</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.890222852953995</v>
+        <v>4.890222852954211</v>
       </c>
       <c r="D9">
         <v>6.091733916021036</v>
       </c>
       <c r="E9">
-        <v>38.93577461213255</v>
+        <v>38.93577461213247</v>
       </c>
       <c r="F9">
-        <v>41.31608812273156</v>
+        <v>41.31608812273147</v>
       </c>
       <c r="G9">
-        <v>32.72843069982016</v>
+        <v>32.7284306998201</v>
       </c>
       <c r="H9">
-        <v>31.23857923165413</v>
+        <v>31.23857923165405</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>117.2807491144366</v>
+        <v>117.2807491144365</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.80671605912102</v>
+        <v>5.806716059121027</v>
       </c>
       <c r="D10">
-        <v>7.533038431742306</v>
+        <v>7.533038431742312</v>
       </c>
       <c r="E10">
-        <v>44.79641237274009</v>
+        <v>44.79641237273987</v>
       </c>
       <c r="F10">
-        <v>49.84054810482811</v>
+        <v>49.84054810482788</v>
       </c>
       <c r="G10">
-        <v>39.73568626273384</v>
+        <v>39.73568626273368</v>
       </c>
       <c r="H10">
-        <v>37.65781370783697</v>
+        <v>37.65781370783684</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>130.7820807353474</v>
+        <v>130.7820807353473</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.3008945986635</v>
+        <v>6.300894598663373</v>
       </c>
       <c r="D11">
-        <v>8.318040456639997</v>
+        <v>8.318040456639993</v>
       </c>
       <c r="E11">
-        <v>47.8552810587048</v>
+        <v>47.85528105870478</v>
       </c>
       <c r="F11">
-        <v>54.36254436080063</v>
+        <v>54.36254436080025</v>
       </c>
       <c r="G11">
-        <v>43.46211878169063</v>
+        <v>43.46211878169036</v>
       </c>
       <c r="H11">
-        <v>41.0580846622051</v>
+        <v>41.05808466220489</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>137.2218421284648</v>
+        <v>137.2218421284645</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.5077628594854</v>
+        <v>6.50776285948516</v>
       </c>
       <c r="D12">
-        <v>8.647780742866638</v>
+        <v>8.647780742866768</v>
       </c>
       <c r="E12">
-        <v>49.1221565239004</v>
+        <v>49.12215652390028</v>
       </c>
       <c r="F12">
-        <v>56.23732263143035</v>
+        <v>56.2373226314302</v>
       </c>
       <c r="G12">
-        <v>45.00918065453202</v>
+        <v>45.00918065453192</v>
       </c>
       <c r="H12">
-        <v>42.46729580969892</v>
+        <v>42.46729580969885</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>139.7555432462891</v>
+        <v>139.755543246289</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.462096610852421</v>
+        <v>6.462096610852308</v>
       </c>
       <c r="D13">
-        <v>8.574941678356108</v>
+        <v>8.574941678356044</v>
       </c>
       <c r="E13">
-        <v>48.84302203838384</v>
+        <v>48.84302203838386</v>
       </c>
       <c r="F13">
-        <v>55.8244317136374</v>
+        <v>55.82443171363751</v>
       </c>
       <c r="G13">
-        <v>44.6683537803391</v>
+        <v>44.66835378033915</v>
       </c>
       <c r="H13">
-        <v>42.15695697337225</v>
+        <v>42.15695697337232</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>139.2042361416312</v>
+        <v>139.2042361416316</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.31743788014935</v>
+        <v>6.317437880149236</v>
       </c>
       <c r="D14">
-        <v>8.344388199416883</v>
+        <v>8.344388199416882</v>
       </c>
       <c r="E14">
-        <v>47.95683501150834</v>
+        <v>47.95683501150813</v>
       </c>
       <c r="F14">
-        <v>54.51288025485538</v>
+        <v>54.5128802548547</v>
       </c>
       <c r="G14">
-        <v>43.58612847550419</v>
+        <v>43.58612847550366</v>
       </c>
       <c r="H14">
-        <v>41.17109580876154</v>
+        <v>41.17109580876105</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>137.4279070003914</v>
+        <v>137.4279070003911</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.231796154108489</v>
+        <v>6.231796154108596</v>
       </c>
       <c r="D15">
-        <v>8.20803394300895</v>
+        <v>8.208033943008886</v>
       </c>
       <c r="E15">
-        <v>47.4305979609147</v>
+        <v>47.43059796091458</v>
       </c>
       <c r="F15">
-        <v>53.73386189031223</v>
+        <v>53.73386189031195</v>
       </c>
       <c r="G15">
-        <v>42.9436162251254</v>
+        <v>42.94361622512518</v>
       </c>
       <c r="H15">
-        <v>40.58547037207233</v>
+        <v>40.5854703720721</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.776551411134231</v>
+        <v>5.776551411134228</v>
       </c>
       <c r="D16">
-        <v>7.485267356326918</v>
+        <v>7.485267356326785</v>
       </c>
       <c r="E16">
-        <v>44.6078393504165</v>
+        <v>44.60783935041632</v>
       </c>
       <c r="F16">
-        <v>49.56265788233976</v>
+        <v>49.56265788233944</v>
       </c>
       <c r="G16">
-        <v>39.50691122283055</v>
+        <v>39.50691122283025</v>
       </c>
       <c r="H16">
-        <v>37.44877938753616</v>
+        <v>37.44877938753586</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>130.3707574524527</v>
+        <v>130.3707574524526</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.521215921982439</v>
+        <v>5.521215921982555</v>
       </c>
       <c r="D17">
-        <v>7.081690047803475</v>
+        <v>7.081690047803607</v>
       </c>
       <c r="E17">
-        <v>43.00125578351606</v>
+        <v>43.00125578351605</v>
       </c>
       <c r="F17">
-        <v>47.20242808736904</v>
+        <v>47.20242808736905</v>
       </c>
       <c r="G17">
-        <v>37.56483151265687</v>
+        <v>37.56483151265693</v>
       </c>
       <c r="H17">
-        <v>35.67288505707918</v>
+        <v>35.67288505707922</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1026,25 +1026,25 @@
         <v>5.380899767066838</v>
       </c>
       <c r="D18">
-        <v>6.860568886467003</v>
+        <v>6.860568886467205</v>
       </c>
       <c r="E18">
-        <v>42.10975634374624</v>
+        <v>42.10975634374631</v>
       </c>
       <c r="F18">
-        <v>45.89964005725455</v>
+        <v>45.89964005725471</v>
       </c>
       <c r="G18">
-        <v>36.49358747503167</v>
+        <v>36.49358747503183</v>
       </c>
       <c r="H18">
-        <v>34.69220301537706</v>
+        <v>34.69220301537721</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>124.7727509938567</v>
+        <v>124.7727509938568</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.334354989401426</v>
+        <v>5.334354989401337</v>
       </c>
       <c r="D19">
-        <v>6.787332985335352</v>
+        <v>6.787332985335287</v>
       </c>
       <c r="E19">
-        <v>41.81256503327481</v>
+        <v>41.81256503327452</v>
       </c>
       <c r="F19">
-        <v>45.46664086978657</v>
+        <v>45.46664086978627</v>
       </c>
       <c r="G19">
-        <v>36.13765596435303</v>
+        <v>36.1376559643527</v>
       </c>
       <c r="H19">
-        <v>34.3661809464443</v>
+        <v>34.36618094644402</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>124.0888076795591</v>
+        <v>124.088807679559</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.547678582477639</v>
+        <v>5.547678582477553</v>
       </c>
       <c r="D20">
-        <v>7.123446869495387</v>
+        <v>7.123446869495459</v>
       </c>
       <c r="E20">
-        <v>43.16866986080819</v>
+        <v>43.16866986080817</v>
       </c>
       <c r="F20">
-        <v>47.44768124610638</v>
+        <v>47.4476812461064</v>
       </c>
       <c r="G20">
-        <v>37.7665532117956</v>
+        <v>37.76655321179565</v>
       </c>
       <c r="H20">
-        <v>35.85746377490234</v>
+        <v>35.85746377490239</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>127.1790478150711</v>
+        <v>127.1790478150715</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.359280196355669</v>
+        <v>6.359280196355556</v>
       </c>
       <c r="D21">
-        <v>8.41104598393906</v>
+        <v>8.411045983939127</v>
       </c>
       <c r="E21">
-        <v>48.21349176697255</v>
+        <v>48.21349176697265</v>
       </c>
       <c r="F21">
-        <v>54.89280471118308</v>
+        <v>54.89280471118326</v>
       </c>
       <c r="G21">
-        <v>43.89955842832511</v>
+        <v>43.89955842832531</v>
       </c>
       <c r="H21">
-        <v>41.45668716961703</v>
+        <v>41.4566871696172</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>7.018082140880996</v>
       </c>
       <c r="D22">
-        <v>9.46331083835414</v>
+        <v>9.463310838354005</v>
       </c>
       <c r="E22">
-        <v>52.22835312107404</v>
+        <v>52.22835312107387</v>
       </c>
       <c r="F22">
-        <v>60.81235818625959</v>
+        <v>60.81235818625935</v>
       </c>
       <c r="G22">
-        <v>48.79003955419989</v>
+        <v>48.79003955419965</v>
       </c>
       <c r="H22">
-        <v>45.90557838071194</v>
+        <v>45.90557838071175</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>145.6154786123008</v>
+        <v>145.6154786123007</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.648759608819693</v>
+        <v>6.648759608819699</v>
       </c>
       <c r="D23">
-        <v>8.872834186038883</v>
+        <v>8.872834186038554</v>
       </c>
       <c r="E23">
-        <v>49.98242643986406</v>
+        <v>49.98242643986392</v>
       </c>
       <c r="F23">
-        <v>57.50860658857968</v>
+        <v>57.50860658857928</v>
       </c>
       <c r="G23">
-        <v>46.05897936203909</v>
+        <v>46.05897936203866</v>
       </c>
       <c r="H23">
-        <v>43.42277184223249</v>
+        <v>43.42277184223209</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1254,25 +1254,25 @@
         <v>5.535695138954952</v>
       </c>
       <c r="D24">
-        <v>7.104535474539881</v>
+        <v>7.104535474539809</v>
       </c>
       <c r="E24">
-        <v>43.09288483511004</v>
+        <v>43.09288483511015</v>
       </c>
       <c r="F24">
-        <v>47.33663777892352</v>
+        <v>47.33663777892355</v>
       </c>
       <c r="G24">
         <v>37.67521723495732</v>
       </c>
       <c r="H24">
-        <v>35.77389330461288</v>
+        <v>35.77389330461291</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>127.0084407453646</v>
+        <v>127.0084407453645</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.5901777138398</v>
+        <v>4.590177713839806</v>
       </c>
       <c r="D25">
-        <v>5.625671249272107</v>
+        <v>5.625671249272042</v>
       </c>
       <c r="E25">
-        <v>36.94495486621432</v>
+        <v>36.94495486621424</v>
       </c>
       <c r="F25">
-        <v>38.49648147827908</v>
+        <v>38.49648147827858</v>
       </c>
       <c r="G25">
-        <v>30.41474595742666</v>
+        <v>30.41474595742623</v>
       </c>
       <c r="H25">
-        <v>29.11054557996147</v>
+        <v>29.1105455799611</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>112.3793383909445</v>
+        <v>112.3793383909442</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
@@ -415,28 +415,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.97733035533721</v>
+        <v>3.977330355337203</v>
       </c>
       <c r="D2">
-        <v>4.686401589619385</v>
+        <v>4.686401589619447</v>
       </c>
       <c r="E2">
-        <v>32.73707110473503</v>
+        <v>32.7370711047349</v>
       </c>
       <c r="F2">
-        <v>32.72105959422984</v>
+        <v>32.72105959422962</v>
       </c>
       <c r="G2">
-        <v>25.67909744119218</v>
+        <v>25.67909744119203</v>
       </c>
       <c r="H2">
-        <v>24.73830432440239</v>
+        <v>24.73830432440224</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>101.5470005517453</v>
+        <v>101.5470005517451</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.584330063653956</v>
+        <v>3.584330063653874</v>
       </c>
       <c r="D3">
-        <v>4.095640083118289</v>
+        <v>4.095640083118292</v>
       </c>
       <c r="E3">
-        <v>29.92287543412541</v>
+        <v>29.92287543412538</v>
       </c>
       <c r="F3">
-        <v>29.03030057285627</v>
+        <v>29.03030057285601</v>
       </c>
       <c r="G3">
-        <v>22.65251204096178</v>
+        <v>22.65251204096157</v>
       </c>
       <c r="H3">
-        <v>21.92934947105694</v>
+        <v>21.92934947105676</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>93.97041972319008</v>
+        <v>93.97041972319012</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.34821207451982</v>
+        <v>3.348212074519908</v>
       </c>
       <c r="D4">
-        <v>3.746220180728059</v>
+        <v>3.746220180728124</v>
       </c>
       <c r="E4">
-        <v>28.18292316392653</v>
+        <v>28.1829231639266</v>
       </c>
       <c r="F4">
-        <v>26.83099710593876</v>
+        <v>26.83099710593889</v>
       </c>
       <c r="G4">
-        <v>20.84726293873485</v>
+        <v>20.84726293873498</v>
       </c>
       <c r="H4">
-        <v>20.24683972783227</v>
+        <v>20.24683972783235</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>89.16181581476063</v>
+        <v>89.1618158147607</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.252650864732096</v>
+        <v>3.252650864731969</v>
       </c>
       <c r="D5">
-        <v>3.606157049886929</v>
+        <v>3.606157049886926</v>
       </c>
       <c r="E5">
-        <v>27.46754893499832</v>
+        <v>27.46754893499842</v>
       </c>
       <c r="F5">
-        <v>25.94718008671084</v>
+        <v>25.94718008671077</v>
       </c>
       <c r="G5">
-        <v>20.12112592833765</v>
+        <v>20.12112592833758</v>
       </c>
       <c r="H5">
-        <v>19.56827392368461</v>
+        <v>19.56827392368456</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>87.15831296614201</v>
+        <v>87.15831296614193</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.236806676496258</v>
+        <v>3.236806676496554</v>
       </c>
       <c r="D6">
-        <v>3.583015004625366</v>
+        <v>3.58301500462523</v>
       </c>
       <c r="E6">
-        <v>27.34829771797471</v>
+        <v>27.34829771797468</v>
       </c>
       <c r="F6">
-        <v>25.80107189312118</v>
+        <v>25.80107189312094</v>
       </c>
       <c r="G6">
-        <v>20.00103643030218</v>
+        <v>20.00103643030194</v>
       </c>
       <c r="H6">
-        <v>19.45594165218218</v>
+        <v>19.45594165218195</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>86.82286147512698</v>
+        <v>86.82286147512683</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.346921380507615</v>
+        <v>3.346921380507521</v>
       </c>
       <c r="D7">
-        <v>3.74432298416312</v>
+        <v>3.744322984163251</v>
       </c>
       <c r="E7">
-        <v>28.17330478553304</v>
+        <v>28.17330478553306</v>
       </c>
       <c r="F7">
-        <v>26.81903210767739</v>
+        <v>26.81903210767727</v>
       </c>
       <c r="G7">
-        <v>20.83743567076824</v>
+        <v>20.83743567076817</v>
       </c>
       <c r="H7">
-        <v>20.23766364530599</v>
+        <v>20.23766364530594</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>89.13497923325023</v>
+        <v>89.13497923325008</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.840306365266483</v>
+        <v>3.840306365266456</v>
       </c>
       <c r="D8">
-        <v>4.479245378562627</v>
+        <v>4.47924537856249</v>
       </c>
       <c r="E8">
-        <v>31.76695110235388</v>
+        <v>31.76695110235394</v>
       </c>
       <c r="F8">
-        <v>31.43146611747931</v>
+        <v>31.4314661174793</v>
       </c>
       <c r="G8">
-        <v>24.62179291209095</v>
+        <v>24.62179291209088</v>
       </c>
       <c r="H8">
-        <v>23.75852241969159</v>
+        <v>23.75852241969155</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>98.9639843597067</v>
+        <v>98.96398435970643</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.890222852954211</v>
+        <v>4.890222852953995</v>
       </c>
       <c r="D9">
         <v>6.091733916021036</v>
       </c>
       <c r="E9">
-        <v>38.93577461213247</v>
+        <v>38.93577461213255</v>
       </c>
       <c r="F9">
-        <v>41.31608812273147</v>
+        <v>41.31608812273156</v>
       </c>
       <c r="G9">
-        <v>32.7284306998201</v>
+        <v>32.72843069982016</v>
       </c>
       <c r="H9">
-        <v>31.23857923165405</v>
+        <v>31.23857923165413</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>117.2807491144365</v>
+        <v>117.2807491144366</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.806716059121027</v>
+        <v>5.80671605912102</v>
       </c>
       <c r="D10">
-        <v>7.533038431742312</v>
+        <v>7.533038431742306</v>
       </c>
       <c r="E10">
-        <v>44.79641237273987</v>
+        <v>44.79641237274009</v>
       </c>
       <c r="F10">
-        <v>49.84054810482788</v>
+        <v>49.84054810482811</v>
       </c>
       <c r="G10">
-        <v>39.73568626273368</v>
+        <v>39.73568626273384</v>
       </c>
       <c r="H10">
-        <v>37.65781370783684</v>
+        <v>37.65781370783697</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>130.7820807353473</v>
+        <v>130.7820807353474</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.300894598663373</v>
+        <v>6.3008945986635</v>
       </c>
       <c r="D11">
-        <v>8.318040456639993</v>
+        <v>8.318040456639997</v>
       </c>
       <c r="E11">
-        <v>47.85528105870478</v>
+        <v>47.8552810587048</v>
       </c>
       <c r="F11">
-        <v>54.36254436080025</v>
+        <v>54.36254436080063</v>
       </c>
       <c r="G11">
-        <v>43.46211878169036</v>
+        <v>43.46211878169063</v>
       </c>
       <c r="H11">
-        <v>41.05808466220489</v>
+        <v>41.0580846622051</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>137.2218421284645</v>
+        <v>137.2218421284648</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.50776285948516</v>
+        <v>6.5077628594854</v>
       </c>
       <c r="D12">
-        <v>8.647780742866768</v>
+        <v>8.647780742866638</v>
       </c>
       <c r="E12">
-        <v>49.12215652390028</v>
+        <v>49.1221565239004</v>
       </c>
       <c r="F12">
-        <v>56.2373226314302</v>
+        <v>56.23732263143035</v>
       </c>
       <c r="G12">
-        <v>45.00918065453192</v>
+        <v>45.00918065453202</v>
       </c>
       <c r="H12">
-        <v>42.46729580969885</v>
+        <v>42.46729580969892</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>139.755543246289</v>
+        <v>139.7555432462891</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.462096610852308</v>
+        <v>6.462096610852421</v>
       </c>
       <c r="D13">
-        <v>8.574941678356044</v>
+        <v>8.574941678356108</v>
       </c>
       <c r="E13">
-        <v>48.84302203838386</v>
+        <v>48.84302203838384</v>
       </c>
       <c r="F13">
-        <v>55.82443171363751</v>
+        <v>55.8244317136374</v>
       </c>
       <c r="G13">
-        <v>44.66835378033915</v>
+        <v>44.6683537803391</v>
       </c>
       <c r="H13">
-        <v>42.15695697337232</v>
+        <v>42.15695697337225</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>139.2042361416316</v>
+        <v>139.2042361416312</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.317437880149236</v>
+        <v>6.31743788014935</v>
       </c>
       <c r="D14">
-        <v>8.344388199416882</v>
+        <v>8.344388199416883</v>
       </c>
       <c r="E14">
-        <v>47.95683501150813</v>
+        <v>47.95683501150834</v>
       </c>
       <c r="F14">
-        <v>54.5128802548547</v>
+        <v>54.51288025485538</v>
       </c>
       <c r="G14">
-        <v>43.58612847550366</v>
+        <v>43.58612847550419</v>
       </c>
       <c r="H14">
-        <v>41.17109580876105</v>
+        <v>41.17109580876154</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>137.4279070003911</v>
+        <v>137.4279070003914</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.231796154108596</v>
+        <v>6.231796154108489</v>
       </c>
       <c r="D15">
-        <v>8.208033943008886</v>
+        <v>8.20803394300895</v>
       </c>
       <c r="E15">
-        <v>47.43059796091458</v>
+        <v>47.4305979609147</v>
       </c>
       <c r="F15">
-        <v>53.73386189031195</v>
+        <v>53.73386189031223</v>
       </c>
       <c r="G15">
-        <v>42.94361622512518</v>
+        <v>42.9436162251254</v>
       </c>
       <c r="H15">
-        <v>40.5854703720721</v>
+        <v>40.58547037207233</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.776551411134228</v>
+        <v>5.776551411134231</v>
       </c>
       <c r="D16">
-        <v>7.485267356326785</v>
+        <v>7.485267356326918</v>
       </c>
       <c r="E16">
-        <v>44.60783935041632</v>
+        <v>44.6078393504165</v>
       </c>
       <c r="F16">
-        <v>49.56265788233944</v>
+        <v>49.56265788233976</v>
       </c>
       <c r="G16">
-        <v>39.50691122283025</v>
+        <v>39.50691122283055</v>
       </c>
       <c r="H16">
-        <v>37.44877938753586</v>
+        <v>37.44877938753616</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>130.3707574524526</v>
+        <v>130.3707574524527</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.521215921982555</v>
+        <v>5.521215921982439</v>
       </c>
       <c r="D17">
-        <v>7.081690047803607</v>
+        <v>7.081690047803475</v>
       </c>
       <c r="E17">
-        <v>43.00125578351605</v>
+        <v>43.00125578351606</v>
       </c>
       <c r="F17">
-        <v>47.20242808736905</v>
+        <v>47.20242808736904</v>
       </c>
       <c r="G17">
-        <v>37.56483151265693</v>
+        <v>37.56483151265687</v>
       </c>
       <c r="H17">
-        <v>35.67288505707922</v>
+        <v>35.67288505707918</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1026,25 +1026,25 @@
         <v>5.380899767066838</v>
       </c>
       <c r="D18">
-        <v>6.860568886467205</v>
+        <v>6.860568886467003</v>
       </c>
       <c r="E18">
-        <v>42.10975634374631</v>
+        <v>42.10975634374624</v>
       </c>
       <c r="F18">
-        <v>45.89964005725471</v>
+        <v>45.89964005725455</v>
       </c>
       <c r="G18">
-        <v>36.49358747503183</v>
+        <v>36.49358747503167</v>
       </c>
       <c r="H18">
-        <v>34.69220301537721</v>
+        <v>34.69220301537706</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>124.7727509938568</v>
+        <v>124.7727509938567</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.334354989401337</v>
+        <v>5.334354989401426</v>
       </c>
       <c r="D19">
-        <v>6.787332985335287</v>
+        <v>6.787332985335352</v>
       </c>
       <c r="E19">
-        <v>41.81256503327452</v>
+        <v>41.81256503327481</v>
       </c>
       <c r="F19">
-        <v>45.46664086978627</v>
+        <v>45.46664086978657</v>
       </c>
       <c r="G19">
-        <v>36.1376559643527</v>
+        <v>36.13765596435303</v>
       </c>
       <c r="H19">
-        <v>34.36618094644402</v>
+        <v>34.3661809464443</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>124.088807679559</v>
+        <v>124.0888076795591</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.547678582477553</v>
+        <v>5.547678582477639</v>
       </c>
       <c r="D20">
-        <v>7.123446869495459</v>
+        <v>7.123446869495387</v>
       </c>
       <c r="E20">
-        <v>43.16866986080817</v>
+        <v>43.16866986080819</v>
       </c>
       <c r="F20">
-        <v>47.4476812461064</v>
+        <v>47.44768124610638</v>
       </c>
       <c r="G20">
-        <v>37.76655321179565</v>
+        <v>37.7665532117956</v>
       </c>
       <c r="H20">
-        <v>35.85746377490239</v>
+        <v>35.85746377490234</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>127.1790478150715</v>
+        <v>127.1790478150711</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.359280196355556</v>
+        <v>6.359280196355669</v>
       </c>
       <c r="D21">
-        <v>8.411045983939127</v>
+        <v>8.41104598393906</v>
       </c>
       <c r="E21">
-        <v>48.21349176697265</v>
+        <v>48.21349176697255</v>
       </c>
       <c r="F21">
-        <v>54.89280471118326</v>
+        <v>54.89280471118308</v>
       </c>
       <c r="G21">
-        <v>43.89955842832531</v>
+        <v>43.89955842832511</v>
       </c>
       <c r="H21">
-        <v>41.4566871696172</v>
+        <v>41.45668716961703</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>7.018082140880996</v>
       </c>
       <c r="D22">
-        <v>9.463310838354005</v>
+        <v>9.46331083835414</v>
       </c>
       <c r="E22">
-        <v>52.22835312107387</v>
+        <v>52.22835312107404</v>
       </c>
       <c r="F22">
-        <v>60.81235818625935</v>
+        <v>60.81235818625959</v>
       </c>
       <c r="G22">
-        <v>48.79003955419965</v>
+        <v>48.79003955419989</v>
       </c>
       <c r="H22">
-        <v>45.90557838071175</v>
+        <v>45.90557838071194</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>145.6154786123007</v>
+        <v>145.6154786123008</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.648759608819699</v>
+        <v>6.648759608819693</v>
       </c>
       <c r="D23">
-        <v>8.872834186038554</v>
+        <v>8.872834186038883</v>
       </c>
       <c r="E23">
-        <v>49.98242643986392</v>
+        <v>49.98242643986406</v>
       </c>
       <c r="F23">
-        <v>57.50860658857928</v>
+        <v>57.50860658857968</v>
       </c>
       <c r="G23">
-        <v>46.05897936203866</v>
+        <v>46.05897936203909</v>
       </c>
       <c r="H23">
-        <v>43.42277184223209</v>
+        <v>43.42277184223249</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1254,25 +1254,25 @@
         <v>5.535695138954952</v>
       </c>
       <c r="D24">
-        <v>7.104535474539809</v>
+        <v>7.104535474539881</v>
       </c>
       <c r="E24">
-        <v>43.09288483511015</v>
+        <v>43.09288483511004</v>
       </c>
       <c r="F24">
-        <v>47.33663777892355</v>
+        <v>47.33663777892352</v>
       </c>
       <c r="G24">
         <v>37.67521723495732</v>
       </c>
       <c r="H24">
-        <v>35.77389330461291</v>
+        <v>35.77389330461288</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>127.0084407453645</v>
+        <v>127.0084407453646</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.590177713839806</v>
+        <v>4.5901777138398</v>
       </c>
       <c r="D25">
-        <v>5.625671249272042</v>
+        <v>5.625671249272107</v>
       </c>
       <c r="E25">
-        <v>36.94495486621424</v>
+        <v>36.94495486621432</v>
       </c>
       <c r="F25">
-        <v>38.49648147827858</v>
+        <v>38.49648147827908</v>
       </c>
       <c r="G25">
-        <v>30.41474595742623</v>
+        <v>30.41474595742666</v>
       </c>
       <c r="H25">
-        <v>29.1105455799611</v>
+        <v>29.11054557996147</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>112.3793383909442</v>
+        <v>112.3793383909445</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.977330355337203</v>
+        <v>3.977121758108644</v>
       </c>
       <c r="D2">
-        <v>4.686401589619447</v>
+        <v>4.683241347909259</v>
       </c>
       <c r="E2">
-        <v>32.7370711047349</v>
+        <v>32.73416124040993</v>
       </c>
       <c r="F2">
-        <v>32.72105959422962</v>
+        <v>32.69652273349882</v>
       </c>
       <c r="G2">
-        <v>25.67909744119203</v>
+        <v>25.71887988539728</v>
       </c>
       <c r="H2">
-        <v>24.73830432440224</v>
+        <v>24.67949334624899</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>24.71967013759684</v>
       </c>
       <c r="J2">
-        <v>101.5470005517451</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>101.5415052902304</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.584330063653874</v>
+        <v>3.584553130904787</v>
       </c>
       <c r="D3">
-        <v>4.095640083118292</v>
+        <v>4.093283045466714</v>
       </c>
       <c r="E3">
-        <v>29.92287543412538</v>
+        <v>29.92081128085563</v>
       </c>
       <c r="F3">
-        <v>29.03030057285601</v>
+        <v>29.00914569334339</v>
       </c>
       <c r="G3">
-        <v>22.65251204096157</v>
+        <v>22.68795230961443</v>
       </c>
       <c r="H3">
-        <v>21.92934947105676</v>
+        <v>21.73947644432739</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>21.91326973657864</v>
       </c>
       <c r="J3">
-        <v>93.97041972319012</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>93.96634561861785</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.348212074519908</v>
+        <v>3.348664522237683</v>
       </c>
       <c r="D4">
-        <v>3.746220180728124</v>
+        <v>3.744318684333936</v>
       </c>
       <c r="E4">
-        <v>28.1829231639266</v>
+        <v>28.18127986078651</v>
       </c>
       <c r="F4">
-        <v>26.83099710593889</v>
+        <v>26.81172735130317</v>
       </c>
       <c r="G4">
-        <v>20.84726293873498</v>
+        <v>20.88003536450691</v>
       </c>
       <c r="H4">
-        <v>20.24683972783235</v>
+        <v>20.00155260509095</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>20.23218548105964</v>
       </c>
       <c r="J4">
-        <v>89.1618158147607</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>89.15847875037207</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.252650864731969</v>
+        <v>3.253189735909448</v>
       </c>
       <c r="D5">
-        <v>3.606157049886926</v>
+        <v>3.604434525155685</v>
       </c>
       <c r="E5">
-        <v>27.46754893499842</v>
+        <v>27.46605931724328</v>
       </c>
       <c r="F5">
-        <v>25.94718008671077</v>
+        <v>25.92864340544677</v>
       </c>
       <c r="G5">
-        <v>20.12112592833758</v>
+        <v>20.15281304065108</v>
       </c>
       <c r="H5">
-        <v>19.56827392368456</v>
+        <v>19.30681052348075</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>19.55417441142612</v>
       </c>
       <c r="J5">
-        <v>87.15831296614193</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>87.15525118916962</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.236806676496554</v>
+        <v>3.2373595176935</v>
       </c>
       <c r="D6">
-        <v>3.58301500462523</v>
+        <v>3.581321860702696</v>
       </c>
       <c r="E6">
-        <v>27.34829771797468</v>
+        <v>27.34683270104625</v>
       </c>
       <c r="F6">
-        <v>25.80107189312094</v>
+        <v>25.78265511454186</v>
       </c>
       <c r="G6">
-        <v>20.00103643030194</v>
+        <v>20.03254349500324</v>
       </c>
       <c r="H6">
-        <v>19.45594165218195</v>
+        <v>19.19218654716345</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>19.4419328971971</v>
       </c>
       <c r="J6">
-        <v>86.82286147512683</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>86.81984410568592</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.346921380507521</v>
+        <v>3.347375020198848</v>
       </c>
       <c r="D7">
-        <v>3.744322984163251</v>
+        <v>3.742423925382356</v>
       </c>
       <c r="E7">
-        <v>28.17330478553306</v>
+        <v>28.17166361979836</v>
       </c>
       <c r="F7">
-        <v>26.81903210767727</v>
+        <v>26.7997723677979</v>
       </c>
       <c r="G7">
-        <v>20.83743567076817</v>
+        <v>20.87019344955584</v>
       </c>
       <c r="H7">
-        <v>20.23766364530594</v>
+        <v>19.99213212154494</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>20.22301697530582</v>
       </c>
       <c r="J7">
-        <v>89.13497923325008</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>89.13164597315225</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.840306365266456</v>
+        <v>3.840255375372919</v>
       </c>
       <c r="D8">
-        <v>4.47924537856249</v>
+        <v>4.4763719041954</v>
       </c>
       <c r="E8">
-        <v>31.76695110235394</v>
+        <v>31.76435835839124</v>
       </c>
       <c r="F8">
-        <v>31.4314661174793</v>
+        <v>31.40814454820601</v>
       </c>
       <c r="G8">
-        <v>24.62179291209088</v>
+        <v>24.66008021312959</v>
       </c>
       <c r="H8">
-        <v>23.75852241969155</v>
+        <v>23.64930771418346</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>23.74080579262162</v>
       </c>
       <c r="J8">
-        <v>98.96398435970643</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>98.9590137577798</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.890222852953995</v>
+        <v>4.888759247826409</v>
       </c>
       <c r="D9">
-        <v>6.091733916021036</v>
+        <v>6.08644233008619</v>
       </c>
       <c r="E9">
-        <v>38.93577461213255</v>
+        <v>38.92998259986312</v>
       </c>
       <c r="F9">
-        <v>41.31608812273156</v>
+        <v>41.28228959003807</v>
       </c>
       <c r="G9">
-        <v>32.72843069982016</v>
+        <v>32.77733574994703</v>
       </c>
       <c r="H9">
-        <v>31.23857923165413</v>
+        <v>31.60559844733893</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>31.21296099172137</v>
       </c>
       <c r="J9">
-        <v>117.2807491144366</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>117.2708123162809</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.80671605912102</v>
+        <v>5.803558426078069</v>
       </c>
       <c r="D10">
-        <v>7.533038431742306</v>
+        <v>7.525056185595057</v>
       </c>
       <c r="E10">
-        <v>44.79641237274009</v>
+        <v>44.78569801677087</v>
       </c>
       <c r="F10">
-        <v>49.84054810482811</v>
+        <v>49.79459945829255</v>
       </c>
       <c r="G10">
-        <v>39.73568626273384</v>
+        <v>39.79132667607029</v>
       </c>
       <c r="H10">
-        <v>37.65781370783697</v>
+        <v>38.54920917346871</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>37.6230446251382</v>
       </c>
       <c r="J10">
-        <v>130.7820807353474</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>130.7654277433466</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.3008945986635</v>
+        <v>6.296566173945337</v>
       </c>
       <c r="D11">
-        <v>8.318040456639997</v>
+        <v>8.30823816187964</v>
       </c>
       <c r="E11">
-        <v>47.8552810587048</v>
+        <v>47.84048230718262</v>
       </c>
       <c r="F11">
-        <v>54.36254436080063</v>
+        <v>54.30816409068679</v>
       </c>
       <c r="G11">
-        <v>43.46211878169063</v>
+        <v>43.51972090246933</v>
       </c>
       <c r="H11">
-        <v>41.0580846622051</v>
+        <v>42.25468085135798</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>41.01696798092902</v>
       </c>
       <c r="J11">
-        <v>137.2218421284648</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>137.2001393509676</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.5077628594854</v>
+        <v>6.502869715193932</v>
       </c>
       <c r="D12">
-        <v>8.647780742866638</v>
+        <v>8.637104151938829</v>
       </c>
       <c r="E12">
-        <v>49.1221565239004</v>
+        <v>49.10519751464711</v>
       </c>
       <c r="F12">
-        <v>56.23732263143035</v>
+        <v>56.17884603959759</v>
       </c>
       <c r="G12">
-        <v>45.00918065453202</v>
+        <v>45.06710180814626</v>
       </c>
       <c r="H12">
-        <v>42.46729580969892</v>
+        <v>43.79469602804881</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>42.42309553702304</v>
       </c>
       <c r="J12">
-        <v>139.7555432462891</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>139.7313079351983</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.462096610852421</v>
+        <v>6.457332562082343</v>
       </c>
       <c r="D13">
-        <v>8.574941678356108</v>
+        <v>8.564464858988224</v>
       </c>
       <c r="E13">
-        <v>48.84302203838384</v>
+        <v>48.82656743714684</v>
       </c>
       <c r="F13">
-        <v>55.8244317136374</v>
+        <v>55.76689339212086</v>
       </c>
       <c r="G13">
-        <v>44.6683537803391</v>
+        <v>44.72623452012608</v>
       </c>
       <c r="H13">
-        <v>42.15695697337225</v>
+        <v>43.45535493948625</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>42.11346299713966</v>
       </c>
       <c r="J13">
-        <v>139.2042361416312</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>139.1805847351541</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.31743788014935</v>
+        <v>6.313066120953249</v>
       </c>
       <c r="D14">
-        <v>8.344388199416883</v>
+        <v>8.334518768111755</v>
       </c>
       <c r="E14">
-        <v>47.95683501150834</v>
+        <v>47.94187477305198</v>
       </c>
       <c r="F14">
-        <v>54.51288025485538</v>
+        <v>54.4581863822397</v>
       </c>
       <c r="G14">
-        <v>43.58612847550419</v>
+        <v>43.64376846129678</v>
       </c>
       <c r="H14">
-        <v>41.17109580876154</v>
+        <v>42.37809554061905</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>41.12974305356418</v>
       </c>
       <c r="J14">
-        <v>137.4279070003914</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>137.40601193681</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.231796154108489</v>
+        <v>6.227645532531327</v>
       </c>
       <c r="D15">
-        <v>8.20803394300895</v>
+        <v>8.198507224896529</v>
       </c>
       <c r="E15">
-        <v>47.4305979609147</v>
+        <v>47.41645422761109</v>
       </c>
       <c r="F15">
-        <v>53.73386189031223</v>
+        <v>53.68076710367613</v>
       </c>
       <c r="G15">
-        <v>42.9436162251254</v>
+        <v>43.00103860920174</v>
       </c>
       <c r="H15">
-        <v>40.58547037207233</v>
+        <v>41.73872862165988</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>40.5453213858554</v>
       </c>
       <c r="J15">
-        <v>136.3545998643885</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>136.3336822861317</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.776551411134231</v>
+        <v>5.773458385848332</v>
       </c>
       <c r="D16">
-        <v>7.485267356326918</v>
+        <v>7.477386077408756</v>
       </c>
       <c r="E16">
-        <v>44.6078393504165</v>
+        <v>44.59733441715863</v>
       </c>
       <c r="F16">
-        <v>49.56265788233976</v>
+        <v>49.51717258628254</v>
       </c>
       <c r="G16">
-        <v>39.50691122283055</v>
+        <v>39.56238625826202</v>
       </c>
       <c r="H16">
-        <v>37.44877938753616</v>
+        <v>38.32194759901691</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>37.41435916725601</v>
       </c>
       <c r="J16">
-        <v>130.3707574524527</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>130.3543742733648</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.521215921982439</v>
+        <v>5.518642968878608</v>
       </c>
       <c r="D17">
-        <v>7.081690047803475</v>
+        <v>7.074624871140847</v>
       </c>
       <c r="E17">
-        <v>43.00125578351606</v>
+        <v>42.99237444763398</v>
       </c>
       <c r="F17">
-        <v>47.20242808736904</v>
+        <v>47.16066852742525</v>
       </c>
       <c r="G17">
-        <v>37.56483151265687</v>
+        <v>37.61873175889728</v>
       </c>
       <c r="H17">
-        <v>35.67288505707918</v>
+        <v>36.39400881511756</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>35.64127021914275</v>
       </c>
       <c r="J17">
-        <v>126.8018318128969</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>126.7875832128143</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.380899767066838</v>
+        <v>5.378593741534288</v>
       </c>
       <c r="D18">
-        <v>6.860568886467003</v>
+        <v>6.85392551630422</v>
       </c>
       <c r="E18">
-        <v>42.10975634374624</v>
+        <v>42.10166504154778</v>
       </c>
       <c r="F18">
-        <v>45.89964005725455</v>
+        <v>45.85979167915384</v>
       </c>
       <c r="G18">
-        <v>36.49358747503167</v>
+        <v>36.54650112264036</v>
       </c>
       <c r="H18">
-        <v>34.69220301537706</v>
+        <v>35.331667985469</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>34.66202744492162</v>
       </c>
       <c r="J18">
-        <v>124.7727509938567</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>124.7595709980428</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.334354989401426</v>
+        <v>5.332134773569073</v>
       </c>
       <c r="D19">
-        <v>6.787332985335352</v>
+        <v>6.780825748246768</v>
       </c>
       <c r="E19">
-        <v>41.81256503327481</v>
+        <v>41.80472143303934</v>
       </c>
       <c r="F19">
-        <v>45.46664086978657</v>
+        <v>45.42740705643071</v>
       </c>
       <c r="G19">
-        <v>36.13765596435303</v>
+        <v>36.19022513438001</v>
       </c>
       <c r="H19">
-        <v>34.3661809464443</v>
+        <v>34.97888822498867</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>34.33646822586473</v>
       </c>
       <c r="J19">
-        <v>124.0888076795591</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>124.0759671548453</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.547678582477639</v>
+        <v>5.545053850248057</v>
       </c>
       <c r="D20">
-        <v>7.123446869495387</v>
+        <v>7.11630013090569</v>
       </c>
       <c r="E20">
-        <v>43.16866986080819</v>
+        <v>43.15963186097404</v>
       </c>
       <c r="F20">
-        <v>47.44768124610638</v>
+        <v>47.40555095486951</v>
       </c>
       <c r="G20">
-        <v>37.7665532117956</v>
+        <v>37.8206303754783</v>
       </c>
       <c r="H20">
-        <v>35.85746377490234</v>
+        <v>36.59414676715296</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>35.82556976502065</v>
       </c>
       <c r="J20">
-        <v>127.1790478150711</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>127.1645897561354</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.359280196355669</v>
+        <v>6.354797469990732</v>
       </c>
       <c r="D21">
-        <v>8.41104598393906</v>
+        <v>8.401004677570471</v>
       </c>
       <c r="E21">
-        <v>48.21349176697255</v>
+        <v>48.19811473250467</v>
       </c>
       <c r="F21">
-        <v>54.89280471118308</v>
+        <v>54.83730724368186</v>
       </c>
       <c r="G21">
-        <v>43.89955842832511</v>
+        <v>43.95728497634096</v>
       </c>
       <c r="H21">
-        <v>41.45668716961703</v>
+        <v>42.69004630333004</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>41.414729486597</v>
       </c>
       <c r="J21">
-        <v>137.9464112995889</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>137.9240222469584</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.018082140880996</v>
+        <v>7.01153636660907</v>
       </c>
       <c r="D22">
-        <v>9.46331083835414</v>
+        <v>9.450077240023766</v>
       </c>
       <c r="E22">
-        <v>52.22835312107404</v>
+        <v>52.20441260213339</v>
       </c>
       <c r="F22">
-        <v>60.81235818625959</v>
+        <v>60.74177363459437</v>
       </c>
       <c r="G22">
-        <v>48.79003955419989</v>
+        <v>48.84698833301198</v>
       </c>
       <c r="H22">
-        <v>45.90557838071194</v>
+        <v>47.56091567845917</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>45.85226360531496</v>
       </c>
       <c r="J22">
-        <v>145.6154786123008</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>145.5835473325773</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.648759608819693</v>
+        <v>6.643450469945929</v>
       </c>
       <c r="D23">
-        <v>8.872834186038883</v>
+        <v>8.861514046078977</v>
       </c>
       <c r="E23">
-        <v>49.98242643986406</v>
+        <v>49.96380036727363</v>
       </c>
       <c r="F23">
-        <v>57.50860658857968</v>
+        <v>57.44709899452025</v>
       </c>
       <c r="G23">
-        <v>46.05897936203909</v>
+        <v>46.11690729278656</v>
       </c>
       <c r="H23">
-        <v>43.42277184223249</v>
+        <v>44.84012420796151</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>43.37628994848655</v>
       </c>
       <c r="J23">
-        <v>141.4294670461501</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>141.4033315364807</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.535695138954952</v>
+        <v>5.533093912656271</v>
       </c>
       <c r="D24">
-        <v>7.104535474539881</v>
+        <v>7.097425752561985</v>
       </c>
       <c r="E24">
-        <v>43.09288483511004</v>
+        <v>43.08391809243151</v>
       </c>
       <c r="F24">
-        <v>47.33663777892352</v>
+        <v>47.29467578917009</v>
       </c>
       <c r="G24">
-        <v>37.67521723495732</v>
+        <v>37.72921465470954</v>
       </c>
       <c r="H24">
-        <v>35.77389330461288</v>
+        <v>36.50352437918417</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>35.74212603022198</v>
       </c>
       <c r="J24">
-        <v>127.0084407453646</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>126.9940778595913</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.5901777138398</v>
+        <v>4.589167863442563</v>
       </c>
       <c r="D25">
-        <v>5.625671249272107</v>
+        <v>5.621127673351793</v>
       </c>
       <c r="E25">
-        <v>36.94495486621432</v>
+        <v>36.94027925104304</v>
       </c>
       <c r="F25">
-        <v>38.49648147827908</v>
+        <v>38.46597567369844</v>
       </c>
       <c r="G25">
-        <v>30.41474595742666</v>
+        <v>30.46084931204619</v>
       </c>
       <c r="H25">
-        <v>29.11054557996147</v>
+        <v>29.32358494421219</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>29.08740898558966</v>
       </c>
       <c r="J25">
-        <v>112.3793383909445</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>112.3710624687171</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.977121758108644</v>
+        <v>7.539390050318838</v>
       </c>
       <c r="D2">
-        <v>4.683241347909259</v>
+        <v>10.35723231415698</v>
       </c>
       <c r="E2">
-        <v>32.73416124040993</v>
+        <v>8.784506939307359</v>
       </c>
       <c r="F2">
-        <v>32.69652273349882</v>
+        <v>65.74682361649258</v>
       </c>
       <c r="G2">
-        <v>25.71887988539728</v>
+        <v>1.975234759020933</v>
       </c>
       <c r="H2">
-        <v>24.67949334624899</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>24.71967013759684</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.768617677632818</v>
       </c>
       <c r="K2">
-        <v>101.5415052902304</v>
+        <v>61.51286862917469</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>38.00837482294867</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.584553130904787</v>
+        <v>6.893214445846336</v>
       </c>
       <c r="D3">
-        <v>4.093283045466714</v>
+        <v>9.354095166443852</v>
       </c>
       <c r="E3">
-        <v>29.92081128085563</v>
+        <v>8.22812116189955</v>
       </c>
       <c r="F3">
-        <v>29.00914569334339</v>
+        <v>61.10456116811422</v>
       </c>
       <c r="G3">
-        <v>22.68795230961443</v>
+        <v>2.014917368729827</v>
       </c>
       <c r="H3">
-        <v>21.73947644432739</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>21.91326973657864</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.904243446178209</v>
       </c>
       <c r="K3">
-        <v>93.96634561861785</v>
+        <v>56.54920661029964</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>34.93571479026878</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.348664522237683</v>
+        <v>6.494079831604302</v>
       </c>
       <c r="D4">
-        <v>3.744318684333936</v>
+        <v>8.746202112516761</v>
       </c>
       <c r="E4">
-        <v>28.18127986078651</v>
+        <v>7.891594109450859</v>
       </c>
       <c r="F4">
-        <v>26.81172735130317</v>
+        <v>58.43932765106074</v>
       </c>
       <c r="G4">
-        <v>20.88003536450691</v>
+        <v>2.038440358103414</v>
       </c>
       <c r="H4">
-        <v>20.00155260509095</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>20.23218548105964</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.985871570443623</v>
       </c>
       <c r="K4">
-        <v>89.15847875037207</v>
+        <v>53.46301637386423</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>33.08230227047741</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.253189735909448</v>
+        <v>6.329999260096673</v>
       </c>
       <c r="D5">
-        <v>3.604434525155685</v>
+        <v>8.498830799914501</v>
       </c>
       <c r="E5">
-        <v>27.46605931724328</v>
+        <v>7.75493886517375</v>
       </c>
       <c r="F5">
-        <v>25.92864340544677</v>
+        <v>57.39186958082185</v>
       </c>
       <c r="G5">
-        <v>20.15281304065108</v>
+        <v>2.04789448079614</v>
       </c>
       <c r="H5">
-        <v>19.30681052348075</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>19.55417441142612</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.018914092609169</v>
       </c>
       <c r="K5">
-        <v>87.15525118916962</v>
+        <v>52.19050531124611</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32.41028083830304</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.2373595176935</v>
+        <v>6.302647354251246</v>
       </c>
       <c r="D6">
-        <v>3.581321860702696</v>
+        <v>8.457736042520498</v>
       </c>
       <c r="E6">
-        <v>27.34683270104625</v>
+        <v>7.73225794616728</v>
       </c>
       <c r="F6">
-        <v>25.78265511454186</v>
+        <v>57.22009221856691</v>
       </c>
       <c r="G6">
-        <v>20.03254349500324</v>
+        <v>2.049458304410333</v>
       </c>
       <c r="H6">
-        <v>19.19218654716345</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>19.4419328971971</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.024392111018342</v>
       </c>
       <c r="K6">
-        <v>86.81984410568592</v>
+        <v>51.97818515310328</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32.29845656057513</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.347375020198848</v>
+        <v>6.491873706832709</v>
       </c>
       <c r="D7">
-        <v>3.742423925382356</v>
+        <v>8.742866423605337</v>
       </c>
       <c r="E7">
-        <v>28.17166361979836</v>
+        <v>7.889750043911135</v>
       </c>
       <c r="F7">
-        <v>26.7997723677979</v>
+        <v>58.42505330273882</v>
       </c>
       <c r="G7">
-        <v>20.87019344955584</v>
+        <v>2.038568303297934</v>
       </c>
       <c r="H7">
-        <v>19.99213212154494</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>20.22301697530582</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.98631787196516</v>
       </c>
       <c r="K7">
-        <v>89.13164597315225</v>
+        <v>53.44592075929432</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33.07325389295897</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.840255375372919</v>
+        <v>7.316498693824111</v>
       </c>
       <c r="D8">
-        <v>4.4763719041954</v>
+        <v>10.00850330538958</v>
       </c>
       <c r="E8">
-        <v>31.76435835839124</v>
+        <v>8.591031660609588</v>
       </c>
       <c r="F8">
-        <v>31.40814454820601</v>
+        <v>64.10200897533748</v>
       </c>
       <c r="G8">
-        <v>24.66008021312959</v>
+        <v>1.989148567047238</v>
       </c>
       <c r="H8">
-        <v>23.64930771418346</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>23.74080579262162</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.815856834732538</v>
       </c>
       <c r="K8">
-        <v>98.9590137577798</v>
+        <v>59.80570131690859</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36.9525241080291</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.888759247826409</v>
+        <v>8.972963796501844</v>
       </c>
       <c r="D9">
-        <v>6.08644233008619</v>
+        <v>12.67269162675063</v>
       </c>
       <c r="E9">
-        <v>38.92998259986312</v>
+        <v>10.06617868466327</v>
       </c>
       <c r="F9">
-        <v>41.28228959003807</v>
+        <v>77.80384552641367</v>
       </c>
       <c r="G9">
-        <v>32.77733574994703</v>
+        <v>1.879901759849679</v>
       </c>
       <c r="H9">
-        <v>31.60559844733893</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>31.21296099172137</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.455532161021583</v>
       </c>
       <c r="K9">
-        <v>117.2708123162809</v>
+        <v>72.34366367040515</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>44.68441027312966</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.803558426078069</v>
+        <v>10.37613083552431</v>
       </c>
       <c r="D10">
-        <v>7.525056185595057</v>
+        <v>15.07521117679608</v>
       </c>
       <c r="E10">
-        <v>44.78569801677087</v>
+        <v>11.38512884543185</v>
       </c>
       <c r="F10">
-        <v>49.79459945829255</v>
+        <v>91.09423008299541</v>
       </c>
       <c r="G10">
-        <v>39.79132667607029</v>
+        <v>1.776300754832016</v>
       </c>
       <c r="H10">
-        <v>38.54920917346871</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>37.6230446251382</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.141043158811459</v>
       </c>
       <c r="K10">
-        <v>130.7654277433466</v>
+        <v>82.64295964747464</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>50.99314785675192</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.296566173945337</v>
+        <v>11.16899290712078</v>
       </c>
       <c r="D11">
-        <v>8.30823816187964</v>
+        <v>16.50283088476476</v>
       </c>
       <c r="E11">
-        <v>47.84048230718262</v>
+        <v>12.16384690167247</v>
       </c>
       <c r="F11">
-        <v>54.30816409068679</v>
+        <v>99.09379236544702</v>
       </c>
       <c r="G11">
-        <v>43.51972090246933</v>
+        <v>1.712929951914328</v>
       </c>
       <c r="H11">
-        <v>42.25468085135798</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>41.01696798092902</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.965387918253977</v>
       </c>
       <c r="K11">
-        <v>137.2001393509676</v>
+        <v>88.30501422988632</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>54.44061552345198</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.502869715193932</v>
+        <v>11.52783026505205</v>
       </c>
       <c r="D12">
-        <v>8.637104151938829</v>
+        <v>17.16806847072931</v>
       </c>
       <c r="E12">
-        <v>49.10519751464711</v>
+        <v>12.52603423839641</v>
       </c>
       <c r="F12">
-        <v>56.17884603959759</v>
+        <v>102.8246978068118</v>
       </c>
       <c r="G12">
-        <v>45.06710180814626</v>
+        <v>1.683030039123757</v>
       </c>
       <c r="H12">
-        <v>43.79469602804881</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>42.42309553702304</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.887743727294757</v>
       </c>
       <c r="K12">
-        <v>139.7313079351983</v>
+        <v>90.82589889092969</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>55.96950785049527</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.457332562082343</v>
+        <v>11.44636779117167</v>
       </c>
       <c r="D13">
-        <v>8.564464858988224</v>
+        <v>17.01593040595642</v>
       </c>
       <c r="E13">
-        <v>48.82656743714684</v>
+        <v>12.44321848176194</v>
       </c>
       <c r="F13">
-        <v>55.76689339212086</v>
+        <v>101.9717554724147</v>
       </c>
       <c r="G13">
-        <v>44.72623452012608</v>
+        <v>1.689886529654257</v>
       </c>
       <c r="H13">
-        <v>43.45535493948625</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>42.11346299713966</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.905228508036354</v>
       </c>
       <c r="K13">
-        <v>139.1805847351541</v>
+        <v>90.25599036730081</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>55.62422727137999</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.313066120953249</v>
+        <v>11.19684247010528</v>
       </c>
       <c r="D14">
-        <v>8.334518768111755</v>
+        <v>16.55401198698754</v>
       </c>
       <c r="E14">
-        <v>47.94187477305198</v>
+        <v>12.19172100961416</v>
       </c>
       <c r="F14">
-        <v>54.4581863822397</v>
+        <v>99.38091281832425</v>
       </c>
       <c r="G14">
-        <v>43.64376846129678</v>
+        <v>1.710637214712952</v>
       </c>
       <c r="H14">
-        <v>42.37809554061905</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>41.12974305356418</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3.95930825292422</v>
       </c>
       <c r="K14">
-        <v>137.40601193681</v>
+        <v>88.50162186157475</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>54.56000130004922</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.227645532531327</v>
+        <v>11.05391726239547</v>
       </c>
       <c r="D15">
-        <v>8.198507224896529</v>
+        <v>16.2921240727067</v>
       </c>
       <c r="E15">
-        <v>47.41645422761109</v>
+        <v>12.04906956349034</v>
       </c>
       <c r="F15">
-        <v>53.68076710367613</v>
+        <v>97.91176817659461</v>
       </c>
       <c r="G15">
-        <v>43.00103860920174</v>
+        <v>1.722354694321123</v>
       </c>
       <c r="H15">
-        <v>41.73872862165988</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>40.5453213858554</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3.990591486871643</v>
       </c>
       <c r="K15">
-        <v>136.3336822861317</v>
+        <v>87.49094086325105</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>53.94603927261683</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.773458385848332</v>
+        <v>10.32931215875215</v>
       </c>
       <c r="D16">
-        <v>7.477386077408756</v>
+        <v>14.99260345281738</v>
       </c>
       <c r="E16">
-        <v>44.59733441715863</v>
+        <v>11.33997473308514</v>
       </c>
       <c r="F16">
-        <v>49.51717258628254</v>
+        <v>90.632556363711</v>
       </c>
       <c r="G16">
-        <v>39.56238625826202</v>
+        <v>1.779930407181801</v>
       </c>
       <c r="H16">
-        <v>38.32194759901691</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>37.41435916725601</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.151522403841859</v>
       </c>
       <c r="K16">
-        <v>130.3543742733648</v>
+        <v>82.30484137327434</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>50.78675548811755</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.518642968878608</v>
+        <v>9.936463189884002</v>
       </c>
       <c r="D17">
-        <v>7.074624871140847</v>
+        <v>14.30641110956687</v>
       </c>
       <c r="E17">
-        <v>42.99237444763398</v>
+        <v>10.96439215803329</v>
       </c>
       <c r="F17">
-        <v>47.16066852742525</v>
+        <v>86.80694962085525</v>
       </c>
       <c r="G17">
-        <v>37.61873175889728</v>
+        <v>1.809906663144282</v>
       </c>
       <c r="H17">
-        <v>36.39400881511756</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>35.64127021914275</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.23965645752443</v>
       </c>
       <c r="K17">
-        <v>126.7875832128143</v>
+        <v>79.45202288515215</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>49.0432657007583</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.378593741534288</v>
+        <v>9.722179265495789</v>
       </c>
       <c r="D18">
-        <v>6.85392551630422</v>
+        <v>13.93719181962615</v>
       </c>
       <c r="E18">
-        <v>42.10166504154778</v>
+        <v>10.76190426466441</v>
       </c>
       <c r="F18">
-        <v>45.85979167915384</v>
+        <v>84.75716670211256</v>
       </c>
       <c r="G18">
-        <v>36.54650112264036</v>
+        <v>1.825901368448515</v>
       </c>
       <c r="H18">
-        <v>35.331667985469</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>34.66202744492162</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.287793039784284</v>
       </c>
       <c r="K18">
-        <v>124.7595709980428</v>
+        <v>77.88442518306921</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>48.0837275745976</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.332134773569073</v>
+        <v>9.651208372034032</v>
       </c>
       <c r="D19">
-        <v>6.780825748246768</v>
+        <v>13.81567009000766</v>
       </c>
       <c r="E19">
-        <v>41.80472143303934</v>
+        <v>10.69519511778671</v>
       </c>
       <c r="F19">
-        <v>45.42740705643071</v>
+        <v>84.08413465180769</v>
       </c>
       <c r="G19">
-        <v>36.19022513438001</v>
+        <v>1.831144175074346</v>
       </c>
       <c r="H19">
-        <v>34.97888822498867</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>34.33646822586473</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.303732030252867</v>
       </c>
       <c r="K19">
-        <v>124.0759671548453</v>
+        <v>77.36350257395365</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>47.76464247887135</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.545053850248057</v>
+        <v>9.97696310263929</v>
       </c>
       <c r="D20">
-        <v>7.11630013090569</v>
+        <v>14.3765893369838</v>
       </c>
       <c r="E20">
-        <v>43.15963186097404</v>
+        <v>11.00284695080761</v>
       </c>
       <c r="F20">
-        <v>47.40555095486951</v>
+        <v>87.19731818066353</v>
       </c>
       <c r="G20">
-        <v>37.8206303754783</v>
+        <v>1.806855606375066</v>
       </c>
       <c r="H20">
-        <v>36.59414676715296</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>35.82556976502065</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.230559842593824</v>
       </c>
       <c r="K20">
-        <v>127.1645897561354</v>
+        <v>79.7474035055527</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>49.22395403642082</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.354797469990732</v>
+        <v>11.26785416076532</v>
       </c>
       <c r="D21">
-        <v>8.401004677570471</v>
+        <v>16.68485083930116</v>
       </c>
       <c r="E21">
-        <v>48.19811473250467</v>
+        <v>12.26296967842022</v>
       </c>
       <c r="F21">
-        <v>54.83730724368186</v>
+        <v>100.114882471282</v>
       </c>
       <c r="G21">
-        <v>43.95728497634096</v>
+        <v>1.704770100803686</v>
       </c>
       <c r="H21">
-        <v>42.69004630333004</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>41.414729486597</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.943843729041049</v>
       </c>
       <c r="K21">
-        <v>137.9240222469584</v>
+        <v>89.00221418828845</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>54.86386770747441</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.01153636660907</v>
+        <v>12.65654637158273</v>
       </c>
       <c r="D22">
-        <v>9.450077240023766</v>
+        <v>19.35141598707232</v>
       </c>
       <c r="E22">
-        <v>52.20441260213339</v>
+        <v>13.71641584542921</v>
       </c>
       <c r="F22">
-        <v>60.74177363459437</v>
+        <v>115.0008467809698</v>
       </c>
       <c r="G22">
-        <v>48.84698833301198</v>
+        <v>1.583666210426637</v>
       </c>
       <c r="H22">
-        <v>47.56091567845917</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>45.85226360531496</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3.658504184334058</v>
       </c>
       <c r="K22">
-        <v>145.5835473325773</v>
+        <v>98.57048199141289</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>60.63611814283693</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.643450469945929</v>
+        <v>11.79054743188361</v>
       </c>
       <c r="D23">
-        <v>8.861514046078977</v>
+        <v>17.66338046574742</v>
       </c>
       <c r="E23">
-        <v>49.96380036727363</v>
+        <v>12.79565818722278</v>
       </c>
       <c r="F23">
-        <v>57.44709899452025</v>
+        <v>105.5991877749992</v>
       </c>
       <c r="G23">
-        <v>46.11690729278656</v>
+        <v>1.660637654387672</v>
       </c>
       <c r="H23">
-        <v>44.84012420796151</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>43.37628994848655</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.832032876677693</v>
       </c>
       <c r="K23">
-        <v>141.4033315364807</v>
+        <v>92.65411711061951</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>57.07559498010861</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.533093912656271</v>
+        <v>9.958618577495342</v>
       </c>
       <c r="D24">
-        <v>7.097425752561985</v>
+        <v>14.3447862042036</v>
       </c>
       <c r="E24">
-        <v>43.08391809243151</v>
+        <v>10.98542140163284</v>
       </c>
       <c r="F24">
-        <v>47.29467578917009</v>
+        <v>87.02038416538946</v>
       </c>
       <c r="G24">
-        <v>37.72921465470954</v>
+        <v>1.808238699125823</v>
       </c>
       <c r="H24">
-        <v>36.50352437918417</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>35.74212603022198</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.234680030079709</v>
       </c>
       <c r="K24">
-        <v>126.9940778595913</v>
+        <v>79.61364592205481</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>49.1421373591276</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.589167863442563</v>
+        <v>8.5098739001936</v>
       </c>
       <c r="D25">
-        <v>5.621127673351793</v>
+        <v>11.91045200673802</v>
       </c>
       <c r="E25">
-        <v>36.94027925104304</v>
+        <v>9.645170597810424</v>
       </c>
       <c r="F25">
-        <v>38.46597567369844</v>
+        <v>73.68079758236226</v>
       </c>
       <c r="G25">
-        <v>30.46084931204619</v>
+        <v>1.911822598096682</v>
       </c>
       <c r="H25">
-        <v>29.32358494421219</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>29.08740898558966</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.558144677592588</v>
       </c>
       <c r="K25">
-        <v>112.3710624687171</v>
+        <v>68.87558726337049</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>42.55101694909695</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.539390050318838</v>
+        <v>12.20265860677728</v>
       </c>
       <c r="D2">
-        <v>10.35723231415698</v>
+        <v>7.489233581836113</v>
       </c>
       <c r="E2">
-        <v>8.784506939307359</v>
+        <v>21.56264219788333</v>
       </c>
       <c r="F2">
-        <v>65.74682361649258</v>
+        <v>52.91538231444704</v>
       </c>
       <c r="G2">
-        <v>1.975234759020933</v>
+        <v>1.813962433978997</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>37.34266731365037</v>
       </c>
       <c r="J2">
-        <v>4.768617677632818</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>61.51286862917469</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.54706591533378</v>
       </c>
       <c r="M2">
-        <v>38.00837482294867</v>
+        <v>105.8908323675635</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.893214445846336</v>
+        <v>11.15185446401585</v>
       </c>
       <c r="D3">
-        <v>9.354095166443852</v>
+        <v>5.70348240661565</v>
       </c>
       <c r="E3">
-        <v>8.22812116189955</v>
+        <v>19.44828634209276</v>
       </c>
       <c r="F3">
-        <v>61.10456116811422</v>
+        <v>44.60513239983489</v>
       </c>
       <c r="G3">
-        <v>2.014917368729827</v>
+        <v>1.884117178870506</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>30.78889438462571</v>
       </c>
       <c r="J3">
-        <v>4.904243446178209</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>56.54920661029964</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.06328448284202</v>
       </c>
       <c r="M3">
-        <v>34.93571479026878</v>
+        <v>95.66829105753335</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.494079831604302</v>
+        <v>10.5316473434199</v>
       </c>
       <c r="D4">
-        <v>8.746202112516761</v>
+        <v>4.793631648478057</v>
       </c>
       <c r="E4">
-        <v>7.891594109450859</v>
+        <v>18.23614260974909</v>
       </c>
       <c r="F4">
-        <v>58.43932765106074</v>
+        <v>40.39861841941082</v>
       </c>
       <c r="G4">
-        <v>2.038440358103414</v>
+        <v>1.920991353768634</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.50413980568265</v>
       </c>
       <c r="J4">
-        <v>4.985871570443623</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>53.46301637386423</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.22859801631283</v>
       </c>
       <c r="M4">
-        <v>33.08230227047741</v>
+        <v>89.78148975910845</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.329999260096673</v>
+        <v>10.2804688342942</v>
       </c>
       <c r="D5">
-        <v>8.498830799914501</v>
+        <v>4.452357142340818</v>
       </c>
       <c r="E5">
-        <v>7.75493886517375</v>
+        <v>17.75068835836331</v>
       </c>
       <c r="F5">
-        <v>57.39186958082185</v>
+        <v>38.82999420884686</v>
       </c>
       <c r="G5">
-        <v>2.04789448079614</v>
+        <v>1.935125787598154</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>26.28788271732936</v>
       </c>
       <c r="J5">
-        <v>5.018914092609169</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>52.19050531124611</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.89713755712289</v>
       </c>
       <c r="M5">
-        <v>32.41028083830304</v>
+        <v>87.41977317204578</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.302647354251246</v>
+        <v>10.23876855514647</v>
       </c>
       <c r="D6">
-        <v>8.457736042520498</v>
+        <v>4.397176131552679</v>
       </c>
       <c r="E6">
-        <v>7.73225794616728</v>
+        <v>17.67035406518178</v>
       </c>
       <c r="F6">
-        <v>57.22009221856691</v>
+        <v>38.57692060901313</v>
       </c>
       <c r="G6">
-        <v>2.049458304410333</v>
+        <v>1.937431000152287</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>26.09221350446396</v>
       </c>
       <c r="J6">
-        <v>5.024392111018342</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>51.97818515310328</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.84243284086194</v>
       </c>
       <c r="M6">
-        <v>32.29845656057513</v>
+        <v>87.02875119768466</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.491873706832709</v>
+        <v>10.5282576898467</v>
       </c>
       <c r="D7">
-        <v>8.742866423605337</v>
+        <v>4.788923982520413</v>
       </c>
       <c r="E7">
-        <v>7.889750043911135</v>
+        <v>18.22957261397083</v>
       </c>
       <c r="F7">
-        <v>58.42505330273882</v>
+        <v>40.37694138424072</v>
       </c>
       <c r="G7">
-        <v>2.038568303297934</v>
+        <v>1.921185008120578</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.48729480265081</v>
       </c>
       <c r="J7">
-        <v>4.98631787196516</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>53.44592075929432</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.22410180518285</v>
       </c>
       <c r="M7">
-        <v>33.07325389295897</v>
+        <v>89.7495412949032</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.316498693824111</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D8">
-        <v>10.00850330538958</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E8">
-        <v>8.591031660609588</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F8">
-        <v>64.10200897533748</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G8">
-        <v>1.989148567047238</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J8">
-        <v>4.815856834732538</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>59.80570131690859</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M8">
-        <v>36.9525241080291</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.972963796501844</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D9">
-        <v>12.67269162675063</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E9">
-        <v>10.06617868466327</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F9">
-        <v>77.80384552641367</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G9">
-        <v>1.879901759849679</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J9">
-        <v>4.455532161021583</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>72.34366367040515</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M9">
-        <v>44.68441027312966</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.37613083552431</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D10">
-        <v>15.07521117679608</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E10">
-        <v>11.38512884543185</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F10">
-        <v>91.09423008299541</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G10">
-        <v>1.776300754832016</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J10">
-        <v>4.141043158811459</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>82.64295964747464</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M10">
-        <v>50.99314785675192</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.16899290712078</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D11">
-        <v>16.50283088476476</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E11">
-        <v>12.16384690167247</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F11">
-        <v>99.09379236544702</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G11">
-        <v>1.712929951914328</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J11">
-        <v>3.965387918253977</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>88.30501422988632</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M11">
-        <v>54.44061552345198</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.52783026505205</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D12">
-        <v>17.16806847072931</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E12">
-        <v>12.52603423839641</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F12">
-        <v>102.8246978068118</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G12">
-        <v>1.683030039123757</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J12">
-        <v>3.887743727294757</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>90.82589889092969</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M12">
-        <v>55.96950785049527</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.44636779117167</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D13">
-        <v>17.01593040595642</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E13">
-        <v>12.44321848176194</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F13">
-        <v>101.9717554724147</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G13">
-        <v>1.689886529654257</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J13">
-        <v>3.905228508036354</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>90.25599036730081</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M13">
-        <v>55.62422727137999</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.19684247010528</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D14">
-        <v>16.55401198698754</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E14">
-        <v>12.19172100961416</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F14">
-        <v>99.38091281832425</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G14">
-        <v>1.710637214712952</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J14">
-        <v>3.95930825292422</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>88.50162186157475</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M14">
-        <v>54.56000130004922</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.05391726239547</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D15">
-        <v>16.2921240727067</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E15">
-        <v>12.04906956349034</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F15">
-        <v>97.91176817659461</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G15">
-        <v>1.722354694321123</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J15">
-        <v>3.990591486871643</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>87.49094086325105</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M15">
-        <v>53.94603927261683</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.32931215875215</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D16">
-        <v>14.99260345281738</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E16">
-        <v>11.33997473308514</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F16">
-        <v>90.632556363711</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G16">
-        <v>1.779930407181801</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J16">
-        <v>4.151522403841859</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>82.30484137327434</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M16">
-        <v>50.78675548811755</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.936463189884002</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D17">
-        <v>14.30641110956687</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E17">
-        <v>10.96439215803329</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F17">
-        <v>86.80694962085525</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G17">
-        <v>1.809906663144282</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J17">
-        <v>4.23965645752443</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>79.45202288515215</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M17">
-        <v>49.0432657007583</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.722179265495789</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D18">
-        <v>13.93719181962615</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E18">
-        <v>10.76190426466441</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F18">
-        <v>84.75716670211256</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G18">
-        <v>1.825901368448515</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J18">
-        <v>4.287793039784284</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>77.88442518306921</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M18">
-        <v>48.0837275745976</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.651208372034032</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D19">
-        <v>13.81567009000766</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E19">
-        <v>10.69519511778671</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F19">
-        <v>84.08413465180769</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G19">
-        <v>1.831144175074346</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J19">
-        <v>4.303732030252867</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>77.36350257395365</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M19">
-        <v>47.76464247887135</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.97696310263929</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D20">
-        <v>14.3765893369838</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E20">
-        <v>11.00284695080761</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F20">
-        <v>87.19731818066353</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G20">
-        <v>1.806855606375066</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J20">
-        <v>4.230559842593824</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>79.7474035055527</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M20">
-        <v>49.22395403642082</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.26785416076532</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D21">
-        <v>16.68485083930116</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E21">
-        <v>12.26296967842022</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F21">
-        <v>100.114882471282</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G21">
-        <v>1.704770100803686</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J21">
-        <v>3.943843729041049</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>89.00221418828845</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M21">
-        <v>54.86386770747441</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.65654637158273</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D22">
-        <v>19.35141598707232</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E22">
-        <v>13.71641584542921</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F22">
-        <v>115.0008467809698</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G22">
-        <v>1.583666210426637</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J22">
-        <v>3.658504184334058</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>98.57048199141289</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M22">
-        <v>60.63611814283693</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.79054743188361</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D23">
-        <v>17.66338046574742</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E23">
-        <v>12.79565818722278</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F23">
-        <v>105.5991877749992</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G23">
-        <v>1.660637654387672</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J23">
-        <v>3.832032876677693</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>92.65411711061951</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M23">
-        <v>57.07559498010861</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.958618577495342</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D24">
-        <v>14.3447862042036</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E24">
-        <v>10.98542140163284</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F24">
-        <v>87.02038416538946</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G24">
-        <v>1.808238699125823</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J24">
-        <v>4.234680030079709</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>79.61364592205481</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M24">
-        <v>49.1421373591276</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.5098739001936</v>
+        <v>11.8310036384118</v>
       </c>
       <c r="D25">
-        <v>11.91045200673802</v>
+        <v>6.818901946621274</v>
       </c>
       <c r="E25">
-        <v>9.645170597810424</v>
+        <v>20.80411314510499</v>
       </c>
       <c r="F25">
-        <v>73.68079758236226</v>
+        <v>49.7922163006067</v>
       </c>
       <c r="G25">
-        <v>1.911822598096682</v>
+        <v>1.840030275317331</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>34.87184209391276</v>
       </c>
       <c r="J25">
-        <v>4.558144677592588</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>68.87558726337049</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.01027434603894</v>
       </c>
       <c r="M25">
-        <v>42.55101694909695</v>
+        <v>102.2314262048014</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.20265860677728</v>
+        <v>7.143069986577376</v>
       </c>
       <c r="D2">
-        <v>7.489233581836113</v>
+        <v>9.159184821805955</v>
       </c>
       <c r="E2">
-        <v>21.56264219788333</v>
+        <v>12.2588898689187</v>
       </c>
       <c r="F2">
-        <v>52.91538231444704</v>
+        <v>45.91109668700077</v>
       </c>
       <c r="G2">
-        <v>1.813962433978997</v>
+        <v>3.745819127465058</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.34266731365037</v>
+        <v>37.36315893148684</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.54706591533378</v>
+        <v>9.172474489855926</v>
       </c>
       <c r="M2">
-        <v>105.8908323675635</v>
+        <v>61.50499109747015</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.15185446401585</v>
+        <v>6.785600552501571</v>
       </c>
       <c r="D3">
-        <v>5.70348240661565</v>
+        <v>9.396766635983203</v>
       </c>
       <c r="E3">
-        <v>19.44828634209276</v>
+        <v>11.74367124332952</v>
       </c>
       <c r="F3">
-        <v>44.60513239983489</v>
+        <v>46.42636363892459</v>
       </c>
       <c r="G3">
-        <v>1.884117178870506</v>
+        <v>3.756711958689575</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.78889438462571</v>
+        <v>37.99083152135487</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.06328448284202</v>
+        <v>8.988510766419925</v>
       </c>
       <c r="M3">
-        <v>95.66829105753335</v>
+        <v>58.4494859549805</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.5316473434199</v>
+        <v>6.556065328879683</v>
       </c>
       <c r="D4">
-        <v>4.793631648478057</v>
+        <v>9.548547313203844</v>
       </c>
       <c r="E4">
-        <v>18.23614260974909</v>
+        <v>11.41789697102617</v>
       </c>
       <c r="F4">
-        <v>40.39861841941082</v>
+        <v>46.78740219708561</v>
       </c>
       <c r="G4">
-        <v>1.920991353768634</v>
+        <v>3.763655207859551</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.50413980568265</v>
+        <v>38.40779295640598</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.22859801631283</v>
+        <v>8.876638719217441</v>
       </c>
       <c r="M4">
-        <v>89.78148975910845</v>
+        <v>56.49051309512775</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.2804688342942</v>
+        <v>6.460065807844111</v>
       </c>
       <c r="D5">
-        <v>4.452357142340818</v>
+        <v>9.611880233223214</v>
       </c>
       <c r="E5">
-        <v>17.75068835836331</v>
+        <v>11.28293393676064</v>
       </c>
       <c r="F5">
-        <v>38.82999420884686</v>
+        <v>46.94535431086861</v>
       </c>
       <c r="G5">
-        <v>1.935125787598154</v>
+        <v>3.766549638614326</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.28788271732936</v>
+        <v>38.58540398967893</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.89713755712289</v>
+        <v>8.831369881879308</v>
       </c>
       <c r="M5">
-        <v>87.41977317204578</v>
+        <v>55.67196471410378</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.23876855514647</v>
+        <v>6.44397860161051</v>
       </c>
       <c r="D6">
-        <v>4.397176131552679</v>
+        <v>9.622485995191541</v>
       </c>
       <c r="E6">
-        <v>17.67035406518178</v>
+        <v>11.26039533385816</v>
       </c>
       <c r="F6">
-        <v>38.57692060901313</v>
+        <v>46.97222443372878</v>
       </c>
       <c r="G6">
-        <v>1.937431000152287</v>
+        <v>3.767034207582197</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.09221350446396</v>
+        <v>38.61535422699233</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.84243284086194</v>
+        <v>8.823873764880906</v>
       </c>
       <c r="M6">
-        <v>87.02875119768466</v>
+        <v>55.53484190075149</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.5282576898467</v>
+        <v>6.554780519761459</v>
       </c>
       <c r="D7">
-        <v>4.788923982520413</v>
+        <v>9.549395449842885</v>
       </c>
       <c r="E7">
-        <v>18.22957261397083</v>
+        <v>11.41608551716916</v>
       </c>
       <c r="F7">
-        <v>40.37694138424072</v>
+        <v>46.78948908511659</v>
       </c>
       <c r="G7">
-        <v>1.921185008120578</v>
+        <v>3.763693978840938</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.48729480265081</v>
+        <v>38.41015742787023</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.22410180518285</v>
+        <v>8.876026848566484</v>
       </c>
       <c r="M7">
-        <v>89.7495412949032</v>
+        <v>56.47955499291582</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.8310036384118</v>
+        <v>7.021934654534914</v>
       </c>
       <c r="D8">
-        <v>6.818901946621274</v>
+        <v>9.239874791004702</v>
       </c>
       <c r="E8">
-        <v>20.80411314510499</v>
+        <v>12.0832902321862</v>
       </c>
       <c r="F8">
-        <v>49.7922163006067</v>
+        <v>46.07924330938925</v>
       </c>
       <c r="G8">
-        <v>1.840030275317331</v>
+        <v>3.749522587308725</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.87184209391276</v>
+        <v>37.57287740520184</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>14.01027434603894</v>
+        <v>9.108847385697102</v>
       </c>
       <c r="M8">
-        <v>102.2314262048014</v>
+        <v>60.4689722240232</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.8310036384118</v>
+        <v>7.856084700352318</v>
       </c>
       <c r="D9">
-        <v>6.818901946621274</v>
+        <v>8.680022038704283</v>
       </c>
       <c r="E9">
-        <v>20.80411314510499</v>
+        <v>13.31083146439406</v>
       </c>
       <c r="F9">
-        <v>49.7922163006067</v>
+        <v>45.05961640663357</v>
       </c>
       <c r="G9">
-        <v>1.840030275317331</v>
+        <v>3.723714437701076</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.87184209391276</v>
+        <v>36.19324851681284</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.01027434603894</v>
+        <v>9.571982773317183</v>
       </c>
       <c r="M9">
-        <v>102.2314262048014</v>
+        <v>67.61442191613081</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.8310036384118</v>
+        <v>8.416755245016303</v>
       </c>
       <c r="D10">
-        <v>6.818901946621274</v>
+        <v>8.297994235674299</v>
       </c>
       <c r="E10">
-        <v>20.80411314510499</v>
+        <v>14.15680581396617</v>
       </c>
       <c r="F10">
-        <v>49.7922163006067</v>
+        <v>44.56461234069673</v>
       </c>
       <c r="G10">
-        <v>1.840030275317331</v>
+        <v>3.70590097007736</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.87184209391276</v>
+        <v>35.35727319514808</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.01027434603894</v>
+        <v>9.91372579515415</v>
       </c>
       <c r="M10">
-        <v>102.2314262048014</v>
+        <v>72.43089735334578</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.8310036384118</v>
+        <v>8.660192319454829</v>
       </c>
       <c r="D11">
-        <v>6.818901946621274</v>
+        <v>8.130767798681012</v>
       </c>
       <c r="E11">
-        <v>20.80411314510499</v>
+        <v>14.52850146991964</v>
       </c>
       <c r="F11">
-        <v>49.7922163006067</v>
+        <v>44.4005432652246</v>
       </c>
       <c r="G11">
-        <v>1.840030275317331</v>
+        <v>3.698032451873747</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.87184209391276</v>
+        <v>35.01986245376937</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.01027434603894</v>
+        <v>10.06903485049191</v>
       </c>
       <c r="M11">
-        <v>102.2314262048014</v>
+        <v>74.52535540453763</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.8310036384118</v>
+        <v>8.750689444895015</v>
       </c>
       <c r="D12">
-        <v>6.818901946621274</v>
+        <v>8.068411977783137</v>
       </c>
       <c r="E12">
-        <v>20.80411314510499</v>
+        <v>14.66729916188889</v>
       </c>
       <c r="F12">
-        <v>49.7922163006067</v>
+        <v>44.34770271162694</v>
       </c>
       <c r="G12">
-        <v>1.840030275317331</v>
+        <v>3.695085436799638</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.87184209391276</v>
+        <v>34.89865440750911</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.01027434603894</v>
+        <v>10.12778878455516</v>
       </c>
       <c r="M12">
-        <v>102.2314262048014</v>
+        <v>75.30445081375127</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.8310036384118</v>
+        <v>8.731274518600838</v>
       </c>
       <c r="D13">
-        <v>6.818901946621274</v>
+        <v>8.081797828138344</v>
       </c>
       <c r="E13">
-        <v>20.80411314510499</v>
+        <v>14.63749445347214</v>
       </c>
       <c r="F13">
-        <v>49.7922163006067</v>
+        <v>44.35866171557831</v>
       </c>
       <c r="G13">
-        <v>1.840030275317331</v>
+        <v>3.695718697440979</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.87184209391276</v>
+        <v>34.92446026258752</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.01027434603894</v>
+        <v>10.11513820395294</v>
       </c>
       <c r="M13">
-        <v>102.2314262048014</v>
+        <v>75.13728435972179</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.8310036384118</v>
+        <v>8.667671463569334</v>
       </c>
       <c r="D14">
-        <v>6.818901946621274</v>
+        <v>8.12561815084573</v>
       </c>
       <c r="E14">
-        <v>20.80411314510499</v>
+        <v>14.53995995287697</v>
       </c>
       <c r="F14">
-        <v>49.7922163006067</v>
+        <v>44.39600699066843</v>
       </c>
       <c r="G14">
-        <v>1.840030275317331</v>
+        <v>3.697789352225681</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.87184209391276</v>
+        <v>35.00975670905084</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.01027434603894</v>
+        <v>10.07386993455052</v>
       </c>
       <c r="M14">
-        <v>102.2314262048014</v>
+        <v>74.58973386008483</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.8310036384118</v>
+        <v>8.628492625336218</v>
       </c>
       <c r="D15">
-        <v>6.818901946621274</v>
+        <v>8.152586466849348</v>
       </c>
       <c r="E15">
-        <v>20.80411314510499</v>
+        <v>14.47996090648242</v>
       </c>
       <c r="F15">
-        <v>49.7922163006067</v>
+        <v>44.4201066923038</v>
       </c>
       <c r="G15">
-        <v>1.840030275317331</v>
+        <v>3.699061901016973</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.87184209391276</v>
+        <v>35.06287007223602</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.01027434603894</v>
+        <v>10.04858332620636</v>
       </c>
       <c r="M15">
-        <v>102.2314262048014</v>
+        <v>74.25251292845935</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.8310036384118</v>
+        <v>8.40061075045671</v>
       </c>
       <c r="D16">
-        <v>6.818901946621274</v>
+        <v>8.309056941722408</v>
       </c>
       <c r="E16">
-        <v>20.80411314510499</v>
+        <v>14.13224423685608</v>
       </c>
       <c r="F16">
-        <v>49.7922163006067</v>
+        <v>44.57660706391708</v>
       </c>
       <c r="G16">
-        <v>1.840030275317331</v>
+        <v>3.706419825658047</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.87184209391276</v>
+        <v>35.38021982035157</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.01027434603894</v>
+        <v>9.90356973410154</v>
       </c>
       <c r="M16">
-        <v>102.2314262048014</v>
+        <v>72.29206269107237</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.8310036384118</v>
+        <v>8.257823759709138</v>
       </c>
       <c r="D17">
-        <v>6.818901946621274</v>
+        <v>8.406743041950534</v>
       </c>
       <c r="E17">
-        <v>20.80411314510499</v>
+        <v>13.91551395746665</v>
       </c>
       <c r="F17">
-        <v>49.7922163006067</v>
+        <v>44.68862165584409</v>
       </c>
       <c r="G17">
-        <v>1.840030275317331</v>
+        <v>3.710993035870332</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.87184209391276</v>
+        <v>35.5861586862612</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.01027434603894</v>
+        <v>9.814542686235475</v>
       </c>
       <c r="M17">
-        <v>102.2314262048014</v>
+        <v>71.06453387736505</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.8310036384118</v>
+        <v>8.17460383116058</v>
       </c>
       <c r="D18">
-        <v>6.818901946621274</v>
+        <v>8.463545040249784</v>
       </c>
       <c r="E18">
-        <v>20.80411314510499</v>
+        <v>13.78962235364948</v>
       </c>
       <c r="F18">
-        <v>49.7922163006067</v>
+        <v>44.7587710827291</v>
       </c>
       <c r="G18">
-        <v>1.840030275317331</v>
+        <v>3.713645609745357</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.87184209391276</v>
+        <v>35.70861975354595</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.01027434603894</v>
+        <v>9.763324373642961</v>
       </c>
       <c r="M18">
-        <v>102.2314262048014</v>
+        <v>70.34940573608576</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.8310036384118</v>
+        <v>8.146239949794259</v>
       </c>
       <c r="D19">
-        <v>6.818901946621274</v>
+        <v>8.482882257434518</v>
       </c>
       <c r="E19">
-        <v>20.80411314510499</v>
+        <v>13.74678790210135</v>
       </c>
       <c r="F19">
-        <v>49.7922163006067</v>
+        <v>44.78348998474402</v>
       </c>
       <c r="G19">
-        <v>1.840030275317331</v>
+        <v>3.714547570221098</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.87184209391276</v>
+        <v>35.75076016707748</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.01027434603894</v>
+        <v>9.745981789397867</v>
       </c>
       <c r="M19">
-        <v>102.2314262048014</v>
+        <v>70.10572036807875</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.8310036384118</v>
+        <v>8.27313690343467</v>
       </c>
       <c r="D20">
-        <v>6.818901946621274</v>
+        <v>8.396280317628584</v>
       </c>
       <c r="E20">
-        <v>20.80411314510499</v>
+        <v>13.93871350895271</v>
       </c>
       <c r="F20">
-        <v>49.7922163006067</v>
+        <v>44.67610173449835</v>
       </c>
       <c r="G20">
-        <v>1.840030275317331</v>
+        <v>3.71050392205255</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.87184209391276</v>
+        <v>35.56381829475119</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.01027434603894</v>
+        <v>9.824021317164156</v>
       </c>
       <c r="M20">
-        <v>102.2314262048014</v>
+        <v>71.19614799383569</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.8310036384118</v>
+        <v>8.686399119952942</v>
       </c>
       <c r="D21">
-        <v>6.818901946621274</v>
+        <v>8.112720515666814</v>
       </c>
       <c r="E21">
-        <v>20.80411314510499</v>
+        <v>14.56866171983931</v>
       </c>
       <c r="F21">
-        <v>49.7922163006067</v>
+        <v>44.38478166312886</v>
       </c>
       <c r="G21">
-        <v>1.840030275317331</v>
+        <v>3.697180274900671</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.87184209391276</v>
+        <v>34.98452168162938</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.01027434603894</v>
+        <v>10.08599327797638</v>
       </c>
       <c r="M21">
-        <v>102.2314262048014</v>
+        <v>74.75094435369033</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.8310036384118</v>
+        <v>8.946651543671919</v>
       </c>
       <c r="D22">
-        <v>6.818901946621274</v>
+        <v>7.933064225336517</v>
       </c>
       <c r="E22">
-        <v>20.80411314510499</v>
+        <v>14.9689512324428</v>
       </c>
       <c r="F22">
-        <v>49.7922163006067</v>
+        <v>44.24876489438152</v>
       </c>
       <c r="G22">
-        <v>1.840030275317331</v>
+        <v>3.688662066221125</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.87184209391276</v>
+        <v>34.64437111759219</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.01027434603894</v>
+        <v>10.34604843135982</v>
       </c>
       <c r="M22">
-        <v>102.2314262048014</v>
+        <v>76.99240114427297</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.8310036384118</v>
+        <v>8.808654294956805</v>
       </c>
       <c r="D23">
-        <v>6.818901946621274</v>
+        <v>8.028421288519979</v>
       </c>
       <c r="E23">
-        <v>20.80411314510499</v>
+        <v>14.75637194938778</v>
       </c>
       <c r="F23">
-        <v>49.7922163006067</v>
+        <v>44.31621735489527</v>
       </c>
       <c r="G23">
-        <v>1.840030275317331</v>
+        <v>3.693191447836799</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.87184209391276</v>
+        <v>34.82225899239202</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.01027434603894</v>
+        <v>10.1791126062029</v>
       </c>
       <c r="M23">
-        <v>102.2314262048014</v>
+        <v>75.80361186305906</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.8310036384118</v>
+        <v>8.266217348832672</v>
       </c>
       <c r="D24">
-        <v>6.818901946621274</v>
+        <v>8.401008520718982</v>
       </c>
       <c r="E24">
-        <v>20.80411314510499</v>
+        <v>13.92822900615205</v>
       </c>
       <c r="F24">
-        <v>49.7922163006067</v>
+        <v>44.68174411657297</v>
       </c>
       <c r="G24">
-        <v>1.840030275317331</v>
+        <v>3.710724977516437</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.87184209391276</v>
+        <v>35.57390575672028</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.01027434603894</v>
+        <v>9.819736135814129</v>
       </c>
       <c r="M24">
-        <v>102.2314262048014</v>
+        <v>71.13667453634366</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.8310036384118</v>
+        <v>7.63946244575946</v>
       </c>
       <c r="D25">
-        <v>6.818901946621274</v>
+        <v>8.826386944756139</v>
       </c>
       <c r="E25">
-        <v>20.80411314510499</v>
+        <v>12.98816160793515</v>
       </c>
       <c r="F25">
-        <v>49.7922163006067</v>
+        <v>45.29280156901859</v>
       </c>
       <c r="G25">
-        <v>1.840030275317331</v>
+        <v>3.730490131309864</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.87184209391276</v>
+        <v>36.53665376892417</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.01027434603894</v>
+        <v>9.446259455622652</v>
       </c>
       <c r="M25">
-        <v>102.2314262048014</v>
+        <v>65.75635686212388</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.143069986577376</v>
+        <v>12.20265860677719</v>
       </c>
       <c r="D2">
-        <v>9.159184821805955</v>
+        <v>7.489233581835859</v>
       </c>
       <c r="E2">
-        <v>12.2588898689187</v>
+        <v>21.56264219788328</v>
       </c>
       <c r="F2">
-        <v>45.91109668700077</v>
+        <v>52.91538231444637</v>
       </c>
       <c r="G2">
-        <v>3.745819127465058</v>
+        <v>1.813962433979137</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.36315893148684</v>
+        <v>37.34266731364981</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.172474489855926</v>
+        <v>14.54706591533371</v>
       </c>
       <c r="M2">
-        <v>61.50499109747015</v>
+        <v>105.8908323675632</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.785600552501571</v>
+        <v>11.15185446401589</v>
       </c>
       <c r="D3">
-        <v>9.396766635983203</v>
+        <v>5.703482406615612</v>
       </c>
       <c r="E3">
-        <v>11.74367124332952</v>
+        <v>19.44828634209275</v>
       </c>
       <c r="F3">
-        <v>46.42636363892459</v>
+        <v>44.60513239983477</v>
       </c>
       <c r="G3">
-        <v>3.756711958689575</v>
+        <v>1.884117178870633</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.99083152135487</v>
+        <v>30.78889438462558</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.988510766419925</v>
+        <v>13.06328448284204</v>
       </c>
       <c r="M3">
-        <v>58.4494859549805</v>
+        <v>95.66829105753325</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.556065328879683</v>
+        <v>10.53164734341982</v>
       </c>
       <c r="D4">
-        <v>9.548547313203844</v>
+        <v>4.793631648477882</v>
       </c>
       <c r="E4">
-        <v>11.41789697102617</v>
+        <v>18.23614260974907</v>
       </c>
       <c r="F4">
-        <v>46.78740219708561</v>
+        <v>40.39861841941036</v>
       </c>
       <c r="G4">
-        <v>3.763655207859551</v>
+        <v>1.920991353768498</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>38.40779295640598</v>
+        <v>27.50413980568228</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.876638719217441</v>
+        <v>12.22859801631282</v>
       </c>
       <c r="M4">
-        <v>56.49051309512775</v>
+        <v>89.78148975910834</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.460065807844111</v>
+        <v>10.28046883429417</v>
       </c>
       <c r="D5">
-        <v>9.611880233223214</v>
+        <v>4.452357142340754</v>
       </c>
       <c r="E5">
-        <v>11.28293393676064</v>
+        <v>17.75068835836334</v>
       </c>
       <c r="F5">
-        <v>46.94535431086861</v>
+        <v>38.82999420884732</v>
       </c>
       <c r="G5">
-        <v>3.766549638614326</v>
+        <v>1.935125787597889</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>38.58540398967893</v>
+        <v>26.28788271732975</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.831369881879308</v>
+        <v>11.89713755712288</v>
       </c>
       <c r="M5">
-        <v>55.67196471410378</v>
+        <v>87.41977317204599</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.44397860161051</v>
+        <v>10.23876855514652</v>
       </c>
       <c r="D6">
-        <v>9.622485995191541</v>
+        <v>4.397176131552674</v>
       </c>
       <c r="E6">
-        <v>11.26039533385816</v>
+        <v>17.67035406518178</v>
       </c>
       <c r="F6">
-        <v>46.97222443372878</v>
+        <v>38.57692060901339</v>
       </c>
       <c r="G6">
-        <v>3.767034207582197</v>
+        <v>1.937431000152287</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>38.61535422699233</v>
+        <v>26.09221350446419</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.823873764880906</v>
+        <v>11.84243284086194</v>
       </c>
       <c r="M6">
-        <v>55.53484190075149</v>
+        <v>87.02875119768483</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.554780519761459</v>
+        <v>10.5282576898467</v>
       </c>
       <c r="D7">
-        <v>9.549395449842885</v>
+        <v>4.788923982520394</v>
       </c>
       <c r="E7">
-        <v>11.41608551716916</v>
+        <v>18.22957261397089</v>
       </c>
       <c r="F7">
-        <v>46.78948908511659</v>
+        <v>40.37694138424045</v>
       </c>
       <c r="G7">
-        <v>3.763693978840938</v>
+        <v>1.92118500812071</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>38.41015742787023</v>
+        <v>27.48729480265059</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.876026848566484</v>
+        <v>12.22410180518294</v>
       </c>
       <c r="M7">
-        <v>56.47955499291582</v>
+        <v>89.74954129490345</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.021934654534914</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D8">
-        <v>9.239874791004702</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E8">
-        <v>12.0832902321862</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F8">
-        <v>46.07924330938925</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G8">
-        <v>3.749522587308725</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37.57287740520184</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.108847385697102</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M8">
-        <v>60.4689722240232</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.856084700352318</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D9">
-        <v>8.680022038704283</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E9">
-        <v>13.31083146439406</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F9">
-        <v>45.05961640663357</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G9">
-        <v>3.723714437701076</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.19324851681284</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.571982773317183</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M9">
-        <v>67.61442191613081</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.416755245016303</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D10">
-        <v>8.297994235674299</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E10">
-        <v>14.15680581396617</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F10">
-        <v>44.56461234069673</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G10">
-        <v>3.70590097007736</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.35727319514808</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.91372579515415</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M10">
-        <v>72.43089735334578</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.660192319454829</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D11">
-        <v>8.130767798681012</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E11">
-        <v>14.52850146991964</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F11">
-        <v>44.4005432652246</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G11">
-        <v>3.698032451873747</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.01986245376937</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.06903485049191</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M11">
-        <v>74.52535540453763</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.750689444895015</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D12">
-        <v>8.068411977783137</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E12">
-        <v>14.66729916188889</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F12">
-        <v>44.34770271162694</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G12">
-        <v>3.695085436799638</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.89865440750911</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.12778878455516</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M12">
-        <v>75.30445081375127</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.731274518600838</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D13">
-        <v>8.081797828138344</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E13">
-        <v>14.63749445347214</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F13">
-        <v>44.35866171557831</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G13">
-        <v>3.695718697440979</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.92446026258752</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.11513820395294</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M13">
-        <v>75.13728435972179</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.667671463569334</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D14">
-        <v>8.12561815084573</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E14">
-        <v>14.53995995287697</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F14">
-        <v>44.39600699066843</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G14">
-        <v>3.697789352225681</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.00975670905084</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.07386993455052</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M14">
-        <v>74.58973386008483</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.628492625336218</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D15">
-        <v>8.152586466849348</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E15">
-        <v>14.47996090648242</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F15">
-        <v>44.4201066923038</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G15">
-        <v>3.699061901016973</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.06287007223602</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.04858332620636</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M15">
-        <v>74.25251292845935</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.40061075045671</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D16">
-        <v>8.309056941722408</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E16">
-        <v>14.13224423685608</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F16">
-        <v>44.57660706391708</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G16">
-        <v>3.706419825658047</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.38021982035157</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.90356973410154</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M16">
-        <v>72.29206269107237</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.257823759709138</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D17">
-        <v>8.406743041950534</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E17">
-        <v>13.91551395746665</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F17">
-        <v>44.68862165584409</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G17">
-        <v>3.710993035870332</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.5861586862612</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.814542686235475</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M17">
-        <v>71.06453387736505</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.17460383116058</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D18">
-        <v>8.463545040249784</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E18">
-        <v>13.78962235364948</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F18">
-        <v>44.7587710827291</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G18">
-        <v>3.713645609745357</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.70861975354595</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.763324373642961</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M18">
-        <v>70.34940573608576</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.146239949794259</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D19">
-        <v>8.482882257434518</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E19">
-        <v>13.74678790210135</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F19">
-        <v>44.78348998474402</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G19">
-        <v>3.714547570221098</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.75076016707748</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.745981789397867</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M19">
-        <v>70.10572036807875</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.27313690343467</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D20">
-        <v>8.396280317628584</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E20">
-        <v>13.93871350895271</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F20">
-        <v>44.67610173449835</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G20">
-        <v>3.71050392205255</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.56381829475119</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.824021317164156</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M20">
-        <v>71.19614799383569</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.686399119952942</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D21">
-        <v>8.112720515666814</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E21">
-        <v>14.56866171983931</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F21">
-        <v>44.38478166312886</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G21">
-        <v>3.697180274900671</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.98452168162938</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.08599327797638</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M21">
-        <v>74.75094435369033</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.946651543671919</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D22">
-        <v>7.933064225336517</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E22">
-        <v>14.9689512324428</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F22">
-        <v>44.24876489438152</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G22">
-        <v>3.688662066221125</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.64437111759219</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.34604843135982</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M22">
-        <v>76.99240114427297</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.808654294956805</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D23">
-        <v>8.028421288519979</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E23">
-        <v>14.75637194938778</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F23">
-        <v>44.31621735489527</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G23">
-        <v>3.693191447836799</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.82225899239202</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.1791126062029</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M23">
-        <v>75.80361186305906</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.266217348832672</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D24">
-        <v>8.401008520718982</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E24">
-        <v>13.92822900615205</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F24">
-        <v>44.68174411657297</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G24">
-        <v>3.710724977516437</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.57390575672028</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.819736135814129</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M24">
-        <v>71.13667453634366</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.63946244575946</v>
+        <v>11.83100363841171</v>
       </c>
       <c r="D25">
-        <v>8.826386944756139</v>
+        <v>6.818901946621152</v>
       </c>
       <c r="E25">
-        <v>12.98816160793515</v>
+        <v>20.80411314510494</v>
       </c>
       <c r="F25">
-        <v>45.29280156901859</v>
+        <v>49.79221630060639</v>
       </c>
       <c r="G25">
-        <v>3.730490131309864</v>
+        <v>1.8400302753172</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.53665376892417</v>
+        <v>34.87184209391246</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.446259455622652</v>
+        <v>14.01027434603893</v>
       </c>
       <c r="M25">
-        <v>65.75635686212388</v>
+        <v>102.2314262048012</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.20265860677719</v>
+        <v>3.501014417530087</v>
       </c>
       <c r="D2">
-        <v>7.489233581835859</v>
+        <v>5.229097791834674</v>
       </c>
       <c r="E2">
-        <v>21.56264219788328</v>
+        <v>8.197706813663475</v>
       </c>
       <c r="F2">
-        <v>52.91538231444637</v>
+        <v>26.78912034483361</v>
       </c>
       <c r="G2">
-        <v>1.813962433979137</v>
+        <v>33.08198636909694</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.455584176661686</v>
       </c>
       <c r="I2">
-        <v>37.34266731364981</v>
+        <v>2.516260389829183</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.34846818117934</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.96390859355416</v>
       </c>
       <c r="L2">
-        <v>14.54706591533371</v>
+        <v>6.049140108330771</v>
       </c>
       <c r="M2">
-        <v>105.8908323675632</v>
+        <v>20.4907833174541</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.36316985431707</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.15185446401589</v>
+        <v>3.347537211774848</v>
       </c>
       <c r="D3">
-        <v>5.703482406615612</v>
+        <v>5.021333223889523</v>
       </c>
       <c r="E3">
-        <v>19.44828634209275</v>
+        <v>7.938626552621384</v>
       </c>
       <c r="F3">
-        <v>44.60513239983477</v>
+        <v>26.2587433649111</v>
       </c>
       <c r="G3">
-        <v>1.884117178870633</v>
+        <v>32.29406419150163</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.718043369684718</v>
       </c>
       <c r="I3">
-        <v>30.78889438462558</v>
+        <v>2.660237748269887</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.30357586932227</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.6444825023843</v>
       </c>
       <c r="L3">
-        <v>13.06328448284204</v>
+        <v>5.958946661364858</v>
       </c>
       <c r="M3">
-        <v>95.66829105753325</v>
+        <v>19.15924979586483</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.44570710872015</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.53164734341982</v>
+        <v>3.25014775686099</v>
       </c>
       <c r="D4">
-        <v>4.793631648477882</v>
+        <v>4.890811323540806</v>
       </c>
       <c r="E4">
-        <v>18.23614260974907</v>
+        <v>7.775109333653113</v>
       </c>
       <c r="F4">
-        <v>40.39861841941036</v>
+        <v>25.93670118571178</v>
       </c>
       <c r="G4">
-        <v>1.920991353768498</v>
+        <v>31.8148344933884</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.884542448138178</v>
       </c>
       <c r="I4">
-        <v>27.50413980568228</v>
+        <v>2.809703719712487</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.27961436936738</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.44946808595508</v>
       </c>
       <c r="L4">
-        <v>12.22859801631282</v>
+        <v>5.901881004059667</v>
       </c>
       <c r="M4">
-        <v>89.78148975910834</v>
+        <v>18.29315960200896</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.85518858192993</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.28046883429417</v>
+        <v>3.198235925045105</v>
       </c>
       <c r="D5">
-        <v>4.452357142340754</v>
+        <v>4.840103565764311</v>
       </c>
       <c r="E5">
-        <v>17.75068835836334</v>
+        <v>7.708083036703625</v>
       </c>
       <c r="F5">
-        <v>38.82999420884732</v>
+        <v>25.79187562983555</v>
       </c>
       <c r="G5">
-        <v>1.935125787597889</v>
+        <v>31.59414774077726</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.954144273991506</v>
       </c>
       <c r="I5">
-        <v>26.28788271732975</v>
+        <v>2.875385283800136</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.26589011727333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.35676502098962</v>
       </c>
       <c r="L5">
-        <v>11.89713755712288</v>
+        <v>5.8776904337242</v>
       </c>
       <c r="M5">
-        <v>87.41977317204599</v>
+        <v>17.92758576836914</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.6086253594402</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.23876855514652</v>
+        <v>3.17552002167736</v>
       </c>
       <c r="D6">
-        <v>4.397176131552674</v>
+        <v>4.835533146997163</v>
       </c>
       <c r="E6">
-        <v>17.67035406518178</v>
+        <v>7.697740040880409</v>
       </c>
       <c r="F6">
-        <v>38.57692060901339</v>
+        <v>25.75005298212058</v>
       </c>
       <c r="G6">
-        <v>1.937431000152287</v>
+        <v>31.52494932052519</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.966250030068191</v>
       </c>
       <c r="I6">
-        <v>26.09221350446419</v>
+        <v>2.890559224782165</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.25775254214803</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.32481605958133</v>
       </c>
       <c r="L6">
-        <v>11.84243284086194</v>
+        <v>5.873025087333701</v>
       </c>
       <c r="M6">
-        <v>87.02875119768483</v>
+        <v>17.86565024951895</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.56823717857967</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.5282576898467</v>
+        <v>3.211363541948188</v>
       </c>
       <c r="D7">
-        <v>4.788923982520394</v>
+        <v>4.900598323402757</v>
       </c>
       <c r="E7">
-        <v>18.22957261397089</v>
+        <v>7.776515720172504</v>
       </c>
       <c r="F7">
-        <v>40.37694138424045</v>
+        <v>25.88635671093017</v>
       </c>
       <c r="G7">
-        <v>1.92118500812071</v>
+        <v>31.72338693267013</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.886729964241568</v>
       </c>
       <c r="I7">
-        <v>27.48729480265059</v>
+        <v>2.821730095200397</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.2633206295722</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.40316705042657</v>
       </c>
       <c r="L7">
-        <v>12.22410180518294</v>
+        <v>5.899874831804253</v>
       </c>
       <c r="M7">
-        <v>89.74954129490345</v>
+        <v>18.28696008931767</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.8544287333902</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.83100363841171</v>
+        <v>3.400141806966184</v>
       </c>
       <c r="D8">
-        <v>6.818901946621152</v>
+        <v>5.171274158978803</v>
       </c>
       <c r="E8">
-        <v>20.80411314510494</v>
+        <v>8.11228246748008</v>
       </c>
       <c r="F8">
-        <v>49.79221630060639</v>
+        <v>26.5431480663165</v>
       </c>
       <c r="G8">
-        <v>1.8400302753172</v>
+        <v>32.69574770448737</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.546580018611083</v>
       </c>
       <c r="I8">
-        <v>34.87184209391246</v>
+        <v>2.520639840699315</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.31111647481561</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.79513795021925</v>
       </c>
       <c r="L8">
-        <v>14.01027434603893</v>
+        <v>6.016248274549064</v>
       </c>
       <c r="M8">
-        <v>102.2314262048012</v>
+        <v>20.04008632755897</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.05562300475282</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.83100363841171</v>
+        <v>3.998321118012166</v>
       </c>
       <c r="D9">
-        <v>6.818901946621152</v>
+        <v>5.659454255312792</v>
       </c>
       <c r="E9">
-        <v>20.80411314510494</v>
+        <v>8.73038590507687</v>
       </c>
       <c r="F9">
-        <v>49.79221630060639</v>
+        <v>27.93969357485076</v>
       </c>
       <c r="G9">
-        <v>1.8400302753172</v>
+        <v>34.78480471676593</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.918614668350642</v>
       </c>
       <c r="I9">
-        <v>34.87184209391246</v>
+        <v>2.980524159960143</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.46328061102571</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.6491926311407</v>
       </c>
       <c r="L9">
-        <v>14.01027434603893</v>
+        <v>6.234047596790913</v>
       </c>
       <c r="M9">
-        <v>102.2314262048012</v>
+        <v>23.09690936270044</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.18700950661458</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.83100363841171</v>
+        <v>4.433830976861555</v>
       </c>
       <c r="D10">
-        <v>6.818901946621152</v>
+        <v>5.955942028556525</v>
       </c>
       <c r="E10">
-        <v>20.80411314510494</v>
+        <v>9.01841707905173</v>
       </c>
       <c r="F10">
-        <v>49.79221630060639</v>
+        <v>28.68933771457285</v>
       </c>
       <c r="G10">
-        <v>1.8400302753172</v>
+        <v>35.91727943547975</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.630260868408747</v>
       </c>
       <c r="I10">
-        <v>34.87184209391246</v>
+        <v>3.353657546961655</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.5137782399243</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.10912207024816</v>
       </c>
       <c r="L10">
-        <v>14.01027434603893</v>
+        <v>6.328763949765677</v>
       </c>
       <c r="M10">
-        <v>102.2314262048012</v>
+        <v>25.13073797534125</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.52731443962949</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.83100363841171</v>
+        <v>4.911308005355669</v>
       </c>
       <c r="D11">
-        <v>6.818901946621152</v>
+        <v>5.680226515190139</v>
       </c>
       <c r="E11">
-        <v>20.80411314510494</v>
+        <v>8.029492634290365</v>
       </c>
       <c r="F11">
-        <v>49.79221630060639</v>
+        <v>26.68610621327072</v>
       </c>
       <c r="G11">
-        <v>1.8400302753172</v>
+        <v>33.09954222058349</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.659819123918774</v>
       </c>
       <c r="I11">
-        <v>34.87184209391246</v>
+        <v>3.474258219322048</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.88346827950596</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.9760802157064</v>
       </c>
       <c r="L11">
-        <v>14.01027434603893</v>
+        <v>5.981948345092238</v>
       </c>
       <c r="M11">
-        <v>102.2314262048012</v>
+        <v>26.17043964988929</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.34989895982975</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.83100363841171</v>
+        <v>5.283183490297947</v>
       </c>
       <c r="D12">
-        <v>6.818901946621152</v>
+        <v>5.37613808274391</v>
       </c>
       <c r="E12">
-        <v>20.80411314510494</v>
+        <v>7.333519690700166</v>
       </c>
       <c r="F12">
-        <v>49.79221630060639</v>
+        <v>24.89265161803956</v>
       </c>
       <c r="G12">
-        <v>1.8400302753172</v>
+        <v>30.57295340131126</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.047474054212767</v>
       </c>
       <c r="I12">
-        <v>34.87184209391246</v>
+        <v>3.501047467317267</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.36608991442527</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.98014859862808</v>
       </c>
       <c r="L12">
-        <v>14.01027434603893</v>
+        <v>5.82596858228405</v>
       </c>
       <c r="M12">
-        <v>102.2314262048012</v>
+        <v>26.64042810339024</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.91102129489641</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.83100363841171</v>
+        <v>5.561505956842296</v>
       </c>
       <c r="D13">
-        <v>6.818901946621152</v>
+        <v>5.039992918805533</v>
       </c>
       <c r="E13">
-        <v>20.80411314510494</v>
+        <v>6.872542993691893</v>
       </c>
       <c r="F13">
-        <v>49.79221630060639</v>
+        <v>23.06661376787441</v>
       </c>
       <c r="G13">
-        <v>1.8400302753172</v>
+        <v>27.95315751965454</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.505615032454523</v>
       </c>
       <c r="I13">
-        <v>34.87184209391246</v>
+        <v>3.459252342859446</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.880802693932695</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.95502506670342</v>
       </c>
       <c r="L13">
-        <v>14.01027434603893</v>
+        <v>5.81221035156871</v>
       </c>
       <c r="M13">
-        <v>102.2314262048012</v>
+        <v>26.71424205213987</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.23455959344916</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.83100363841171</v>
+        <v>5.710098102803209</v>
       </c>
       <c r="D14">
-        <v>6.818901946621152</v>
+        <v>4.792006158301308</v>
       </c>
       <c r="E14">
-        <v>20.80411314510494</v>
+        <v>6.718883708651492</v>
       </c>
       <c r="F14">
-        <v>49.79221630060639</v>
+        <v>21.76645071709952</v>
       </c>
       <c r="G14">
-        <v>1.8400302753172</v>
+        <v>26.05045904670122</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.532021689211219</v>
       </c>
       <c r="I14">
-        <v>34.87184209391246</v>
+        <v>3.399925432735541</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.556535924207612</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.21435857697734</v>
       </c>
       <c r="L14">
-        <v>14.01027434603893</v>
+        <v>5.887736206483551</v>
       </c>
       <c r="M14">
-        <v>102.2314262048012</v>
+        <v>26.5879897773426</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.64455272895358</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.83100363841171</v>
+        <v>5.713569135879005</v>
       </c>
       <c r="D15">
-        <v>6.818901946621152</v>
+        <v>4.726613378468728</v>
       </c>
       <c r="E15">
-        <v>20.80411314510494</v>
+        <v>6.700691118694236</v>
       </c>
       <c r="F15">
-        <v>49.79221630060639</v>
+        <v>21.43077233478621</v>
       </c>
       <c r="G15">
-        <v>1.8400302753172</v>
+        <v>25.54289740268336</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.77132541921884</v>
       </c>
       <c r="I15">
-        <v>34.87184209391246</v>
+        <v>3.371019314227436</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.480190243751835</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.01461237151494</v>
       </c>
       <c r="L15">
-        <v>14.01027434603893</v>
+        <v>5.913569780685292</v>
       </c>
       <c r="M15">
-        <v>102.2314262048012</v>
+        <v>26.4712135837993</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>17.44986320037409</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.83100363841171</v>
+        <v>5.48643362545679</v>
       </c>
       <c r="D16">
-        <v>6.818901946621152</v>
+        <v>4.658621380834695</v>
       </c>
       <c r="E16">
-        <v>20.80411314510494</v>
+        <v>6.645307276774261</v>
       </c>
       <c r="F16">
-        <v>49.79221630060639</v>
+        <v>21.41323643634891</v>
       </c>
       <c r="G16">
-        <v>1.8400302753172</v>
+        <v>25.44732293716383</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.580522307976366</v>
       </c>
       <c r="I16">
-        <v>34.87184209391246</v>
+        <v>3.222103212950827</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.548488972043183</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.97850241646885</v>
       </c>
       <c r="L16">
-        <v>14.01027434603893</v>
+        <v>5.867029594889493</v>
       </c>
       <c r="M16">
-        <v>102.2314262048012</v>
+        <v>25.6349450348136</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>16.98801373136403</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.83100363841171</v>
+        <v>5.22155887141405</v>
       </c>
       <c r="D17">
-        <v>6.818901946621152</v>
+        <v>4.741351934285134</v>
       </c>
       <c r="E17">
-        <v>20.80411314510494</v>
+        <v>6.654616969004209</v>
       </c>
       <c r="F17">
-        <v>49.79221630060639</v>
+        <v>22.09315532362469</v>
       </c>
       <c r="G17">
-        <v>1.8400302753172</v>
+        <v>26.40032823785748</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.861336581491435</v>
       </c>
       <c r="I17">
-        <v>34.87184209391246</v>
+        <v>3.139189372433652</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.77027143952631</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.3461614709471</v>
       </c>
       <c r="L17">
-        <v>14.01027434603893</v>
+        <v>5.777152524810313</v>
       </c>
       <c r="M17">
-        <v>102.2314262048012</v>
+        <v>25.04856202959165</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.95693908840075</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.83100363841171</v>
+        <v>4.92758242903157</v>
       </c>
       <c r="D18">
-        <v>6.818901946621152</v>
+        <v>4.962931037077666</v>
       </c>
       <c r="E18">
-        <v>20.80411314510494</v>
+        <v>6.888443142349507</v>
       </c>
       <c r="F18">
-        <v>49.79221630060639</v>
+        <v>23.4957586166933</v>
       </c>
       <c r="G18">
-        <v>1.8400302753172</v>
+        <v>28.4293382859295</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.630357675825644</v>
       </c>
       <c r="I18">
-        <v>34.87184209391246</v>
+        <v>3.103785466207856</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.16634288715954</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.13949524671282</v>
       </c>
       <c r="L18">
-        <v>14.01027434603893</v>
+        <v>5.722153542915927</v>
       </c>
       <c r="M18">
-        <v>102.2314262048012</v>
+        <v>24.62443060704477</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.29450094588031</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.83100363841171</v>
+        <v>4.579186221614605</v>
       </c>
       <c r="D19">
-        <v>6.818901946621152</v>
+        <v>5.300182535428706</v>
       </c>
       <c r="E19">
-        <v>20.80411314510494</v>
+        <v>7.500328609336411</v>
       </c>
       <c r="F19">
-        <v>49.79221630060639</v>
+        <v>25.31902088887775</v>
       </c>
       <c r="G19">
-        <v>1.8400302753172</v>
+        <v>31.03876620958561</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.174318575561012</v>
       </c>
       <c r="I19">
-        <v>34.87184209391246</v>
+        <v>3.11875781248603</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.65961777131093</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.15220862001295</v>
       </c>
       <c r="L19">
-        <v>14.01027434603893</v>
+        <v>5.82064095791879</v>
       </c>
       <c r="M19">
-        <v>102.2314262048012</v>
+        <v>24.36879150323068</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.89777036664783</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.83100363841171</v>
+        <v>4.226962694545658</v>
       </c>
       <c r="D20">
-        <v>6.818901946621152</v>
+        <v>5.904182853019334</v>
       </c>
       <c r="E20">
-        <v>20.80411314510494</v>
+        <v>8.94344081198753</v>
       </c>
       <c r="F20">
-        <v>49.79221630060639</v>
+        <v>28.34316220257451</v>
       </c>
       <c r="G20">
-        <v>1.8400302753172</v>
+        <v>35.35570546867796</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.624150258334417</v>
       </c>
       <c r="I20">
-        <v>34.87184209391246</v>
+        <v>3.262255739927774</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.44769623486965</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.85207607739691</v>
       </c>
       <c r="L20">
-        <v>14.01027434603893</v>
+        <v>6.297071404814955</v>
       </c>
       <c r="M20">
-        <v>102.2314262048012</v>
+        <v>24.60978749051947</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.18601528190673</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.83100363841171</v>
+        <v>4.509234858005253</v>
       </c>
       <c r="D21">
-        <v>6.818901946621152</v>
+        <v>6.195758462019405</v>
       </c>
       <c r="E21">
-        <v>20.80411314510494</v>
+        <v>9.37906966157836</v>
       </c>
       <c r="F21">
-        <v>49.79221630060639</v>
+        <v>29.36449105979099</v>
       </c>
       <c r="G21">
-        <v>1.8400302753172</v>
+        <v>36.86656708828097</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.845897232824147</v>
       </c>
       <c r="I21">
-        <v>34.87184209391246</v>
+        <v>3.550873708197307</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.61847908981695</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.46596339741278</v>
       </c>
       <c r="L21">
-        <v>14.01027434603893</v>
+        <v>6.456469519337861</v>
       </c>
       <c r="M21">
-        <v>102.2314262048012</v>
+        <v>26.0695050130806</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.30604018942802</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.83100363841171</v>
+        <v>4.740530426608188</v>
       </c>
       <c r="D22">
-        <v>6.818901946621152</v>
+        <v>6.346732526752221</v>
       </c>
       <c r="E22">
-        <v>20.80411314510494</v>
+        <v>9.582651060082185</v>
       </c>
       <c r="F22">
-        <v>49.79221630060639</v>
+        <v>29.95063751947952</v>
       </c>
       <c r="G22">
-        <v>1.8400302753172</v>
+        <v>37.75831316143132</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.054000515850962</v>
       </c>
       <c r="I22">
-        <v>34.87184209391246</v>
+        <v>3.731920300949339</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.71630597310815</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.84229704899641</v>
       </c>
       <c r="L22">
-        <v>14.01027434603893</v>
+        <v>6.532041005278939</v>
       </c>
       <c r="M22">
-        <v>102.2314262048012</v>
+        <v>26.99387517972477</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.96459173735021</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.83100363841171</v>
+        <v>4.652610081487314</v>
       </c>
       <c r="D23">
-        <v>6.818901946621152</v>
+        <v>6.256561047702276</v>
       </c>
       <c r="E23">
-        <v>20.80411314510494</v>
+        <v>9.472035955397933</v>
       </c>
       <c r="F23">
-        <v>49.79221630060639</v>
+        <v>29.68768131657605</v>
       </c>
       <c r="G23">
-        <v>1.8400302753172</v>
+        <v>37.37183660776125</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.944483682796952</v>
       </c>
       <c r="I23">
-        <v>34.87184209391246</v>
+        <v>3.633571929485093</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.6816878935733</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.68911386816216</v>
       </c>
       <c r="L23">
-        <v>14.01027434603893</v>
+        <v>6.493528283708244</v>
       </c>
       <c r="M23">
-        <v>102.2314262048012</v>
+        <v>26.50547093357234</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.61338510309017</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.83100363841171</v>
+        <v>4.247565647227496</v>
       </c>
       <c r="D24">
-        <v>6.818901946621152</v>
+        <v>5.92310413764363</v>
       </c>
       <c r="E24">
-        <v>20.80411314510494</v>
+        <v>9.047823455075104</v>
       </c>
       <c r="F24">
-        <v>49.79221630060639</v>
+        <v>28.61692669730662</v>
       </c>
       <c r="G24">
-        <v>1.8400302753172</v>
+        <v>35.77199003104802</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.601385274102934</v>
       </c>
       <c r="I24">
-        <v>34.87184209391246</v>
+        <v>3.2582029011153</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.53147410018919</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.03546869649242</v>
       </c>
       <c r="L24">
-        <v>14.01027434603893</v>
+        <v>6.342375504229874</v>
       </c>
       <c r="M24">
-        <v>102.2314262048012</v>
+        <v>24.57178078966854</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.23486517699516</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.83100363841171</v>
+        <v>3.77269282522767</v>
       </c>
       <c r="D25">
-        <v>6.818901946621152</v>
+        <v>5.54712354441818</v>
       </c>
       <c r="E25">
-        <v>20.80411314510494</v>
+        <v>8.571098220762957</v>
       </c>
       <c r="F25">
-        <v>49.79221630060639</v>
+        <v>27.47779096882867</v>
       </c>
       <c r="G25">
-        <v>1.8400302753172</v>
+        <v>34.06886200303836</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.086338705286679</v>
       </c>
       <c r="I25">
-        <v>34.87184209391246</v>
+        <v>2.841143251146858</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.39032427816636</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.34038443936919</v>
       </c>
       <c r="L25">
-        <v>14.01027434603893</v>
+        <v>6.173741636918593</v>
       </c>
       <c r="M25">
-        <v>102.2314262048012</v>
+        <v>22.30862558070412</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>17.63823232426438</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.501014417530087</v>
+        <v>2.59621309229989</v>
       </c>
       <c r="D2">
-        <v>5.229097791834674</v>
+        <v>5.653268002221895</v>
       </c>
       <c r="E2">
-        <v>8.197706813663475</v>
+        <v>8.377882585306809</v>
       </c>
       <c r="F2">
-        <v>26.78912034483361</v>
+        <v>24.97654274014426</v>
       </c>
       <c r="G2">
-        <v>33.08198636909694</v>
+        <v>29.42795686884644</v>
       </c>
       <c r="H2">
-        <v>2.455584176661686</v>
+        <v>2.423132549571966</v>
       </c>
       <c r="I2">
-        <v>2.516260389829183</v>
+        <v>2.613962242102294</v>
       </c>
       <c r="J2">
-        <v>11.34846818117934</v>
+        <v>10.95533349217352</v>
       </c>
       <c r="K2">
-        <v>18.96390859355416</v>
+        <v>17.15627333537083</v>
       </c>
       <c r="L2">
-        <v>6.049140108330771</v>
+        <v>14.48577000020665</v>
       </c>
       <c r="M2">
-        <v>20.4907833174541</v>
+        <v>11.07221591492781</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.033656784758453</v>
       </c>
       <c r="O2">
-        <v>16.36316985431707</v>
+        <v>20.49234599001097</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.44194592959153</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.347537211774848</v>
+        <v>2.692801088887036</v>
       </c>
       <c r="D3">
-        <v>5.021333223889523</v>
+        <v>5.415801721858291</v>
       </c>
       <c r="E3">
-        <v>7.938626552621384</v>
+        <v>8.129201903094641</v>
       </c>
       <c r="F3">
-        <v>26.2587433649111</v>
+        <v>24.63842820118219</v>
       </c>
       <c r="G3">
-        <v>32.29406419150163</v>
+        <v>29.0366170903917</v>
       </c>
       <c r="H3">
-        <v>2.718043369684718</v>
+        <v>2.665043625131039</v>
       </c>
       <c r="I3">
-        <v>2.660237748269887</v>
+        <v>2.526242232849542</v>
       </c>
       <c r="J3">
-        <v>11.30357586932227</v>
+        <v>10.92621217380543</v>
       </c>
       <c r="K3">
-        <v>18.6444825023843</v>
+        <v>17.00370432292846</v>
       </c>
       <c r="L3">
-        <v>5.958946661364858</v>
+        <v>14.5060315942705</v>
       </c>
       <c r="M3">
-        <v>19.15924979586483</v>
+        <v>10.80363495805648</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.959735861150127</v>
       </c>
       <c r="O3">
-        <v>15.44570710872015</v>
+        <v>19.17557738791325</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.51326585540017</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.25014775686099</v>
+        <v>2.756625745122312</v>
       </c>
       <c r="D4">
-        <v>4.890811323540806</v>
+        <v>5.266707084015586</v>
       </c>
       <c r="E4">
-        <v>7.775109333653113</v>
+        <v>7.97269611204934</v>
       </c>
       <c r="F4">
-        <v>25.93670118571178</v>
+        <v>24.43521065019834</v>
       </c>
       <c r="G4">
-        <v>31.8148344933884</v>
+        <v>28.80876023584694</v>
       </c>
       <c r="H4">
-        <v>2.884542448138178</v>
+        <v>2.81863366196999</v>
       </c>
       <c r="I4">
-        <v>2.809703719712487</v>
+        <v>2.651875446832078</v>
       </c>
       <c r="J4">
-        <v>11.27961436936738</v>
+        <v>10.90916858502849</v>
       </c>
       <c r="K4">
-        <v>18.44946808595508</v>
+        <v>16.91078527612304</v>
       </c>
       <c r="L4">
-        <v>5.901881004059667</v>
+        <v>14.51421586895245</v>
       </c>
       <c r="M4">
-        <v>18.29315960200896</v>
+        <v>10.65778984114013</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.912959138009946</v>
       </c>
       <c r="O4">
-        <v>14.85518858192993</v>
+        <v>18.31908590651663</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.91489059893607</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.198235925045105</v>
+        <v>2.776352164580464</v>
       </c>
       <c r="D5">
-        <v>4.840103565764311</v>
+        <v>5.208173745613903</v>
       </c>
       <c r="E5">
-        <v>7.708083036703625</v>
+        <v>7.908663771100573</v>
       </c>
       <c r="F5">
-        <v>25.79187562983555</v>
+        <v>24.3405812956132</v>
       </c>
       <c r="G5">
-        <v>31.59414774077726</v>
+        <v>28.69537765062947</v>
       </c>
       <c r="H5">
-        <v>2.954144273991506</v>
+        <v>2.882844545057681</v>
       </c>
       <c r="I5">
-        <v>2.875385283800136</v>
+        <v>2.708233927066085</v>
       </c>
       <c r="J5">
-        <v>11.26589011727333</v>
+        <v>10.89816515487035</v>
       </c>
       <c r="K5">
-        <v>18.35676502098962</v>
+        <v>16.8613669385773</v>
       </c>
       <c r="L5">
-        <v>5.8776904337242</v>
+        <v>14.50678190116792</v>
       </c>
       <c r="M5">
-        <v>17.92758576836914</v>
+        <v>10.59526656058151</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.893098014922006</v>
       </c>
       <c r="O5">
-        <v>14.6086253594402</v>
+        <v>17.95761764472149</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.66481232049279</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.17552002167736</v>
+        <v>2.770876048471161</v>
       </c>
       <c r="D6">
-        <v>4.835533146997163</v>
+        <v>5.202060078557262</v>
       </c>
       <c r="E6">
-        <v>7.697740040880409</v>
+        <v>7.898792248264015</v>
       </c>
       <c r="F6">
-        <v>25.75005298212058</v>
+        <v>24.30913997749607</v>
       </c>
       <c r="G6">
-        <v>31.52494932052519</v>
+        <v>28.64795182853745</v>
       </c>
       <c r="H6">
-        <v>2.966250030068191</v>
+        <v>2.893986123961382</v>
       </c>
       <c r="I6">
-        <v>2.890559224782165</v>
+        <v>2.722523818485167</v>
       </c>
       <c r="J6">
-        <v>11.25775254214803</v>
+        <v>10.89114697365402</v>
       </c>
       <c r="K6">
-        <v>18.32481605958133</v>
+        <v>16.83883681158481</v>
       </c>
       <c r="L6">
-        <v>5.873025087333701</v>
+        <v>14.49365762090072</v>
       </c>
       <c r="M6">
-        <v>17.86565024951895</v>
+        <v>10.57526364389605</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.889231415212878</v>
       </c>
       <c r="O6">
-        <v>14.56823717857967</v>
+        <v>17.8964235931249</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.6237423063298</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.211363541948188</v>
+        <v>2.73927477785395</v>
       </c>
       <c r="D7">
-        <v>4.900598323402757</v>
+        <v>5.281802833835244</v>
       </c>
       <c r="E7">
-        <v>7.776515720172504</v>
+        <v>7.975433535728969</v>
       </c>
       <c r="F7">
-        <v>25.88635671093017</v>
+        <v>24.36482886321627</v>
       </c>
       <c r="G7">
-        <v>31.72338693267013</v>
+        <v>28.78480699005812</v>
       </c>
       <c r="H7">
-        <v>2.886729964241568</v>
+        <v>2.821217802375287</v>
       </c>
       <c r="I7">
-        <v>2.821730095200397</v>
+        <v>2.666251553941415</v>
       </c>
       <c r="J7">
-        <v>11.2633206295722</v>
+        <v>10.84990402508511</v>
       </c>
       <c r="K7">
-        <v>18.40316705042657</v>
+        <v>16.85395944828949</v>
       </c>
       <c r="L7">
-        <v>5.899874831804253</v>
+        <v>14.468570882447</v>
       </c>
       <c r="M7">
-        <v>18.28696008931767</v>
+        <v>10.61706920990777</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.910320367851981</v>
       </c>
       <c r="O7">
-        <v>14.8544287333902</v>
+        <v>18.31236280868585</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.91528184299307</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.400141806966184</v>
+        <v>2.618304048110128</v>
       </c>
       <c r="D8">
-        <v>5.171274158978803</v>
+        <v>5.603742295246708</v>
       </c>
       <c r="E8">
-        <v>8.11228246748008</v>
+        <v>8.300408021801644</v>
       </c>
       <c r="F8">
-        <v>26.5431480663165</v>
+        <v>24.71878857594502</v>
       </c>
       <c r="G8">
-        <v>32.69574770448737</v>
+        <v>29.3731305229459</v>
       </c>
       <c r="H8">
-        <v>2.546580018611083</v>
+        <v>2.508847589823639</v>
       </c>
       <c r="I8">
-        <v>2.520639840699315</v>
+        <v>2.550768597271489</v>
       </c>
       <c r="J8">
-        <v>11.31111647481561</v>
+        <v>10.77999283632907</v>
       </c>
       <c r="K8">
-        <v>18.79513795021925</v>
+        <v>16.9972437887763</v>
       </c>
       <c r="L8">
-        <v>6.016248274549064</v>
+        <v>14.41139374618031</v>
       </c>
       <c r="M8">
-        <v>20.04008632755897</v>
+        <v>10.89570484530925</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.003763741291449</v>
       </c>
       <c r="O8">
-        <v>16.05562300475282</v>
+        <v>20.04465516329329</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.13477803151549</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.998321118012166</v>
+        <v>2.447739312223415</v>
       </c>
       <c r="D9">
-        <v>5.659454255312792</v>
+        <v>6.167413689383232</v>
       </c>
       <c r="E9">
-        <v>8.73038590507687</v>
+        <v>8.896868781917064</v>
       </c>
       <c r="F9">
-        <v>27.93969357485076</v>
+        <v>25.61843662523426</v>
       </c>
       <c r="G9">
-        <v>34.78480471676593</v>
+        <v>30.55881996088652</v>
       </c>
       <c r="H9">
-        <v>1.918614668350642</v>
+        <v>1.931236361911297</v>
       </c>
       <c r="I9">
-        <v>2.980524159960143</v>
+        <v>3.002077249018101</v>
       </c>
       <c r="J9">
-        <v>11.46328061102571</v>
+        <v>10.83604628096746</v>
       </c>
       <c r="K9">
-        <v>19.6491926311407</v>
+        <v>17.41572484575676</v>
       </c>
       <c r="L9">
-        <v>6.234047596790913</v>
+        <v>14.36839817442387</v>
       </c>
       <c r="M9">
-        <v>23.09690936270044</v>
+        <v>11.68032656415607</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.181838877430999</v>
       </c>
       <c r="O9">
-        <v>18.18700950661458</v>
+        <v>23.06645434327863</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.28954009783246</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.433830976861555</v>
+        <v>2.610049598612484</v>
       </c>
       <c r="D10">
-        <v>5.955942028556525</v>
+        <v>6.537825968636324</v>
       </c>
       <c r="E10">
-        <v>9.01841707905173</v>
+        <v>9.17389166776776</v>
       </c>
       <c r="F10">
-        <v>28.68933771457285</v>
+        <v>25.91318796548315</v>
       </c>
       <c r="G10">
-        <v>35.91727943547975</v>
+        <v>31.44933250724187</v>
       </c>
       <c r="H10">
-        <v>1.630260868408747</v>
+        <v>1.581417377987266</v>
       </c>
       <c r="I10">
-        <v>3.353657546961655</v>
+        <v>3.312522561845882</v>
       </c>
       <c r="J10">
-        <v>11.5137782399243</v>
+        <v>10.57320632278984</v>
       </c>
       <c r="K10">
-        <v>20.10912207024816</v>
+        <v>17.50292322852836</v>
       </c>
       <c r="L10">
-        <v>6.328763949765677</v>
+        <v>14.15899355403828</v>
       </c>
       <c r="M10">
-        <v>25.13073797534125</v>
+        <v>12.14303773636559</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.24718117494596</v>
       </c>
       <c r="O10">
-        <v>19.52731443962949</v>
+        <v>25.07358911424947</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.6472740493808</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.911308005355669</v>
+        <v>3.275730043182246</v>
       </c>
       <c r="D11">
-        <v>5.680226515190139</v>
+        <v>6.275626039127164</v>
       </c>
       <c r="E11">
-        <v>8.029492634290365</v>
+        <v>8.138249686885155</v>
       </c>
       <c r="F11">
-        <v>26.68610621327072</v>
+        <v>23.78592253501769</v>
       </c>
       <c r="G11">
-        <v>33.09954222058349</v>
+        <v>29.52169774590244</v>
       </c>
       <c r="H11">
-        <v>2.659819123918774</v>
+        <v>2.643679880562699</v>
       </c>
       <c r="I11">
-        <v>3.474258219322048</v>
+        <v>3.412638179810308</v>
       </c>
       <c r="J11">
-        <v>10.88346827950596</v>
+        <v>9.596822209002633</v>
       </c>
       <c r="K11">
-        <v>18.9760802157064</v>
+        <v>16.34124489807375</v>
       </c>
       <c r="L11">
-        <v>5.981948345092238</v>
+        <v>13.23560941696802</v>
       </c>
       <c r="M11">
-        <v>26.17043964988929</v>
+        <v>11.37330562746127</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.906466519683015</v>
       </c>
       <c r="O11">
-        <v>19.34989895982975</v>
+        <v>26.10331100544072</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.47792248475518</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.283183490297947</v>
+        <v>3.799908344399836</v>
       </c>
       <c r="D12">
-        <v>5.37613808274391</v>
+        <v>5.945828969765335</v>
       </c>
       <c r="E12">
-        <v>7.333519690700166</v>
+        <v>7.385630981300078</v>
       </c>
       <c r="F12">
-        <v>24.89265161803956</v>
+        <v>22.07579171549603</v>
       </c>
       <c r="G12">
-        <v>30.57295340131126</v>
+        <v>27.58786024013741</v>
       </c>
       <c r="H12">
-        <v>4.047474054212767</v>
+        <v>4.07263228467727</v>
       </c>
       <c r="I12">
-        <v>3.501047467317267</v>
+        <v>3.43427816207908</v>
       </c>
       <c r="J12">
-        <v>10.36608991442527</v>
+        <v>9.050675513321986</v>
       </c>
       <c r="K12">
-        <v>17.98014859862808</v>
+        <v>15.45700793695733</v>
       </c>
       <c r="L12">
-        <v>5.82596858228405</v>
+        <v>12.59807471070671</v>
       </c>
       <c r="M12">
-        <v>26.64042810339024</v>
+        <v>10.70267265533314</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.767107488176181</v>
       </c>
       <c r="O12">
-        <v>18.91102129489641</v>
+        <v>26.57182398899414</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>19.03910795350262</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.561505956842296</v>
+        <v>4.203144004930779</v>
       </c>
       <c r="D13">
-        <v>5.039992918805533</v>
+        <v>5.540541218698829</v>
       </c>
       <c r="E13">
-        <v>6.872542993691893</v>
+        <v>6.864025096606581</v>
       </c>
       <c r="F13">
-        <v>23.06661376787441</v>
+        <v>20.56262576579644</v>
       </c>
       <c r="G13">
-        <v>27.95315751965454</v>
+        <v>25.25661332481616</v>
       </c>
       <c r="H13">
-        <v>5.505615032454523</v>
+        <v>5.523000061946354</v>
       </c>
       <c r="I13">
-        <v>3.459252342859446</v>
+        <v>3.401548554127776</v>
       </c>
       <c r="J13">
-        <v>9.880802693932695</v>
+        <v>8.803597508660737</v>
       </c>
       <c r="K13">
-        <v>16.95502506670342</v>
+        <v>14.70461907158889</v>
       </c>
       <c r="L13">
-        <v>5.81221035156871</v>
+        <v>12.10853754501416</v>
       </c>
       <c r="M13">
-        <v>26.71424205213987</v>
+        <v>10.04763207458574</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.776681318754108</v>
       </c>
       <c r="O13">
-        <v>18.23455959344916</v>
+        <v>26.6518775310091</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.35345537559995</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.710098102803209</v>
+        <v>4.431174977112438</v>
       </c>
       <c r="D14">
-        <v>4.792006158301308</v>
+        <v>5.225979576090268</v>
       </c>
       <c r="E14">
-        <v>6.718883708651492</v>
+        <v>6.674123981649187</v>
       </c>
       <c r="F14">
-        <v>21.76645071709952</v>
+        <v>19.58187252089683</v>
       </c>
       <c r="G14">
-        <v>26.05045904670122</v>
+        <v>23.43809276193527</v>
       </c>
       <c r="H14">
-        <v>6.532021689211219</v>
+        <v>6.545018018934309</v>
       </c>
       <c r="I14">
-        <v>3.399925432735541</v>
+        <v>3.355204227111024</v>
       </c>
       <c r="J14">
-        <v>9.556535924207612</v>
+        <v>8.735925776189015</v>
       </c>
       <c r="K14">
-        <v>16.21435857697734</v>
+        <v>14.22534347553709</v>
       </c>
       <c r="L14">
-        <v>5.887736206483551</v>
+        <v>11.81954993257938</v>
       </c>
       <c r="M14">
-        <v>26.5879897773426</v>
+        <v>9.587375514454102</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.868994734768786</v>
       </c>
       <c r="O14">
-        <v>17.64455272895358</v>
+        <v>26.53341614435955</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>17.7525616843033</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.713569135879005</v>
+        <v>4.450764850184801</v>
       </c>
       <c r="D15">
-        <v>4.726613378468728</v>
+        <v>5.13730837278413</v>
       </c>
       <c r="E15">
-        <v>6.700691118694236</v>
+        <v>6.650965753476173</v>
       </c>
       <c r="F15">
-        <v>21.43077233478621</v>
+        <v>19.36588552534487</v>
       </c>
       <c r="G15">
-        <v>25.54289740268336</v>
+        <v>22.90643700345366</v>
       </c>
       <c r="H15">
-        <v>6.77132541921884</v>
+        <v>6.783039188169206</v>
       </c>
       <c r="I15">
-        <v>3.371019314227436</v>
+        <v>3.333079481455208</v>
       </c>
       <c r="J15">
-        <v>9.480190243751835</v>
+        <v>8.759227991808013</v>
       </c>
       <c r="K15">
-        <v>16.01461237151494</v>
+        <v>14.12006494068733</v>
       </c>
       <c r="L15">
-        <v>5.913569780685292</v>
+        <v>11.76501939377432</v>
       </c>
       <c r="M15">
-        <v>26.4712135837993</v>
+        <v>9.46781665843077</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.899368580258221</v>
       </c>
       <c r="O15">
-        <v>17.44986320037409</v>
+        <v>26.4201842721834</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>17.55325123199584</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.48643362545679</v>
+        <v>4.187923438366994</v>
       </c>
       <c r="D16">
-        <v>4.658621380834695</v>
+        <v>5.012070176727703</v>
       </c>
       <c r="E16">
-        <v>6.645307276774261</v>
+        <v>6.622863550122954</v>
       </c>
       <c r="F16">
-        <v>21.41323643634891</v>
+        <v>19.67810296711291</v>
       </c>
       <c r="G16">
-        <v>25.44732293716383</v>
+        <v>22.44163757929144</v>
       </c>
       <c r="H16">
-        <v>6.580522307976366</v>
+        <v>6.588407267798749</v>
       </c>
       <c r="I16">
-        <v>3.222103212950827</v>
+        <v>3.213987562076449</v>
       </c>
       <c r="J16">
-        <v>9.548488972043183</v>
+        <v>9.151423577909023</v>
       </c>
       <c r="K16">
-        <v>15.97850241646885</v>
+        <v>14.32240959983288</v>
       </c>
       <c r="L16">
-        <v>5.867029594889493</v>
+        <v>11.97835926298504</v>
       </c>
       <c r="M16">
-        <v>25.6349450348136</v>
+        <v>9.48566950535418</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.86017762242821</v>
       </c>
       <c r="O16">
-        <v>16.98801373136403</v>
+        <v>25.5985485473133</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.07541013451558</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.22155887141405</v>
+        <v>3.862493185053944</v>
       </c>
       <c r="D17">
-        <v>4.741351934285134</v>
+        <v>5.091390755746278</v>
       </c>
       <c r="E17">
-        <v>6.654616969004209</v>
+        <v>6.665257866983267</v>
       </c>
       <c r="F17">
-        <v>22.09315532362469</v>
+        <v>20.41364603946873</v>
       </c>
       <c r="G17">
-        <v>26.40032823785748</v>
+        <v>23.13020061541853</v>
       </c>
       <c r="H17">
-        <v>5.861336581491435</v>
+        <v>5.867568412190402</v>
       </c>
       <c r="I17">
-        <v>3.139189372433652</v>
+        <v>3.146579410662636</v>
       </c>
       <c r="J17">
-        <v>9.77027143952631</v>
+        <v>9.477315059455858</v>
       </c>
       <c r="K17">
-        <v>16.3461614709471</v>
+        <v>14.71531707893564</v>
       </c>
       <c r="L17">
-        <v>5.777152524810313</v>
+        <v>12.29355182150318</v>
       </c>
       <c r="M17">
-        <v>25.04856202959165</v>
+        <v>9.727199897861642</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.769151378622848</v>
       </c>
       <c r="O17">
-        <v>16.95693908840075</v>
+        <v>25.01854039483501</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.03971254427431</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.92758242903157</v>
+        <v>3.458890414124923</v>
       </c>
       <c r="D18">
-        <v>4.962931037077666</v>
+        <v>5.344553959929318</v>
       </c>
       <c r="E18">
-        <v>6.888443142349507</v>
+        <v>6.941003733643239</v>
       </c>
       <c r="F18">
-        <v>23.4957586166933</v>
+        <v>21.69133080384045</v>
       </c>
       <c r="G18">
-        <v>28.4293382859295</v>
+        <v>24.81980134997771</v>
       </c>
       <c r="H18">
-        <v>4.630357675825644</v>
+        <v>4.637352769478095</v>
       </c>
       <c r="I18">
-        <v>3.103785466207856</v>
+        <v>3.115216707306188</v>
       </c>
       <c r="J18">
-        <v>10.16634288715954</v>
+        <v>9.856578488395838</v>
       </c>
       <c r="K18">
-        <v>17.13949524671282</v>
+        <v>15.38304425136146</v>
       </c>
       <c r="L18">
-        <v>5.722153542915927</v>
+        <v>12.78474082441764</v>
       </c>
       <c r="M18">
-        <v>24.62443060704477</v>
+        <v>10.23269077529045</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.704654798941688</v>
       </c>
       <c r="O18">
-        <v>17.29450094588031</v>
+        <v>24.59514653815274</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.38018715100684</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.579186221614605</v>
+        <v>2.97175156059988</v>
       </c>
       <c r="D19">
-        <v>5.300182535428706</v>
+        <v>5.734003633091662</v>
       </c>
       <c r="E19">
-        <v>7.500328609336411</v>
+        <v>7.598025314465871</v>
       </c>
       <c r="F19">
-        <v>25.31902088887775</v>
+        <v>23.28634249341621</v>
       </c>
       <c r="G19">
-        <v>31.03876620958561</v>
+        <v>27.03014566951675</v>
       </c>
       <c r="H19">
-        <v>3.174318575561012</v>
+        <v>3.186097922874741</v>
       </c>
       <c r="I19">
-        <v>3.11875781248603</v>
+        <v>3.127167572509266</v>
       </c>
       <c r="J19">
-        <v>10.65961777131093</v>
+        <v>10.26590430379425</v>
       </c>
       <c r="K19">
-        <v>18.15220862001295</v>
+        <v>16.18338054156917</v>
       </c>
       <c r="L19">
-        <v>5.82064095791879</v>
+        <v>13.35643118960438</v>
       </c>
       <c r="M19">
-        <v>24.36879150323068</v>
+        <v>10.87411845515073</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.786378862954697</v>
       </c>
       <c r="O19">
-        <v>17.89777036664783</v>
+        <v>24.33610893810333</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.99079979310079</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.226962694545658</v>
+        <v>2.411809506451266</v>
       </c>
       <c r="D20">
-        <v>5.904182853019334</v>
+        <v>6.446803584343169</v>
       </c>
       <c r="E20">
-        <v>8.94344081198753</v>
+        <v>9.096806414211066</v>
       </c>
       <c r="F20">
-        <v>28.34316220257451</v>
+        <v>25.78799929313814</v>
       </c>
       <c r="G20">
-        <v>35.35570546867796</v>
+        <v>30.7851343318443</v>
       </c>
       <c r="H20">
-        <v>1.624150258334417</v>
+        <v>1.662155805956633</v>
       </c>
       <c r="I20">
-        <v>3.262255739927774</v>
+        <v>3.243357493757189</v>
       </c>
       <c r="J20">
-        <v>11.44769623486965</v>
+        <v>10.75000671419045</v>
       </c>
       <c r="K20">
-        <v>19.85207607739691</v>
+        <v>17.41947581965552</v>
       </c>
       <c r="L20">
-        <v>6.297071404814955</v>
+        <v>14.17135361199362</v>
       </c>
       <c r="M20">
-        <v>24.60978749051947</v>
+        <v>11.96955603517508</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.226487046384879</v>
       </c>
       <c r="O20">
-        <v>19.18601528190673</v>
+        <v>24.56198313934176</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.29738339266751</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.509234858005253</v>
+        <v>2.745158210559478</v>
       </c>
       <c r="D21">
-        <v>6.195758462019405</v>
+        <v>6.901325020111307</v>
       </c>
       <c r="E21">
-        <v>9.37906966157836</v>
+        <v>9.558165384142733</v>
       </c>
       <c r="F21">
-        <v>29.36449105979099</v>
+        <v>25.96369387321146</v>
       </c>
       <c r="G21">
-        <v>36.86656708828097</v>
+        <v>33.04469470590931</v>
       </c>
       <c r="H21">
-        <v>1.845897232824147</v>
+        <v>1.770545984505996</v>
       </c>
       <c r="I21">
-        <v>3.550873708197307</v>
+        <v>3.472753304451624</v>
       </c>
       <c r="J21">
-        <v>11.61847908981695</v>
+        <v>9.895970632302785</v>
       </c>
       <c r="K21">
-        <v>20.46596339741278</v>
+        <v>17.40000802751145</v>
       </c>
       <c r="L21">
-        <v>6.456469519337861</v>
+        <v>13.95015077974711</v>
       </c>
       <c r="M21">
-        <v>26.0695050130806</v>
+        <v>12.26671263184551</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.345951621558307</v>
       </c>
       <c r="O21">
-        <v>20.30604018942802</v>
+        <v>25.9906001566937</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.45007238839856</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.740530426608188</v>
+        <v>3.023838363098931</v>
       </c>
       <c r="D22">
-        <v>6.346732526752221</v>
+        <v>7.160061021192883</v>
       </c>
       <c r="E22">
-        <v>9.582651060082185</v>
+        <v>9.779126487864511</v>
       </c>
       <c r="F22">
-        <v>29.95063751947952</v>
+        <v>25.98257949381187</v>
       </c>
       <c r="G22">
-        <v>37.75831316143132</v>
+        <v>34.53749966526097</v>
       </c>
       <c r="H22">
-        <v>2.054000515850962</v>
+        <v>1.954379805568727</v>
       </c>
       <c r="I22">
-        <v>3.731920300949339</v>
+        <v>3.614726248138737</v>
       </c>
       <c r="J22">
-        <v>11.71630597310815</v>
+        <v>9.321537832349239</v>
       </c>
       <c r="K22">
-        <v>20.84229704899641</v>
+        <v>17.35244701456479</v>
       </c>
       <c r="L22">
-        <v>6.532041005278939</v>
+        <v>13.78149603919914</v>
       </c>
       <c r="M22">
-        <v>26.99387517972477</v>
+        <v>12.4387996531048</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.396324307246093</v>
       </c>
       <c r="O22">
-        <v>20.96459173735021</v>
+        <v>26.89490031875347</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.12922890377651</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.652610081487314</v>
+        <v>2.886415631363314</v>
       </c>
       <c r="D23">
-        <v>6.256561047702276</v>
+        <v>6.999702223520369</v>
       </c>
       <c r="E23">
-        <v>9.472035955397933</v>
+        <v>9.655375042656496</v>
       </c>
       <c r="F23">
-        <v>29.68768131657605</v>
+        <v>26.07776227736326</v>
       </c>
       <c r="G23">
-        <v>37.37183660776125</v>
+        <v>33.67881979939512</v>
       </c>
       <c r="H23">
-        <v>1.944483682796952</v>
+        <v>1.85857402797883</v>
       </c>
       <c r="I23">
-        <v>3.633571929485093</v>
+        <v>3.53670238035846</v>
       </c>
       <c r="J23">
-        <v>11.6816878935733</v>
+        <v>9.730671483708912</v>
       </c>
       <c r="K23">
-        <v>20.68911386816216</v>
+        <v>17.45940342598935</v>
       </c>
       <c r="L23">
-        <v>6.493528283708244</v>
+        <v>13.92742773779964</v>
       </c>
       <c r="M23">
-        <v>26.50547093357234</v>
+        <v>12.41332472838676</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.372779221623009</v>
       </c>
       <c r="O23">
-        <v>20.61338510309017</v>
+        <v>26.41822762261362</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.76472021112378</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.247565647227496</v>
+        <v>2.412381977990525</v>
       </c>
       <c r="D24">
-        <v>5.92310413764363</v>
+        <v>6.470869310580059</v>
       </c>
       <c r="E24">
-        <v>9.047823455075104</v>
+        <v>9.204881317589351</v>
       </c>
       <c r="F24">
-        <v>28.61692669730662</v>
+        <v>26.03481866516016</v>
       </c>
       <c r="G24">
-        <v>35.77199003104802</v>
+        <v>31.14166541653859</v>
       </c>
       <c r="H24">
-        <v>1.601385274102934</v>
+        <v>1.640116547791082</v>
       </c>
       <c r="I24">
-        <v>3.2582029011153</v>
+        <v>3.236713678869757</v>
       </c>
       <c r="J24">
-        <v>11.53147410018919</v>
+        <v>10.82622980052032</v>
       </c>
       <c r="K24">
-        <v>20.03546869649242</v>
+        <v>17.57409335055993</v>
       </c>
       <c r="L24">
-        <v>6.342375504229874</v>
+        <v>14.28445251889107</v>
       </c>
       <c r="M24">
-        <v>24.57178078966854</v>
+        <v>12.08977569076464</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.269879386507187</v>
       </c>
       <c r="O24">
-        <v>19.23486517699516</v>
+        <v>24.52349968377413</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.34703559513129</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.77269282522767</v>
+        <v>2.430171453106487</v>
       </c>
       <c r="D25">
-        <v>5.54712354441818</v>
+        <v>6.026482627256859</v>
       </c>
       <c r="E25">
-        <v>8.571098220762957</v>
+        <v>8.740999014063664</v>
       </c>
       <c r="F25">
-        <v>27.47779096882867</v>
+        <v>25.33402187120332</v>
       </c>
       <c r="G25">
-        <v>34.06886200303836</v>
+        <v>30.01689262537484</v>
       </c>
       <c r="H25">
-        <v>2.086338705286679</v>
+        <v>2.0844251105293</v>
       </c>
       <c r="I25">
-        <v>2.841143251146858</v>
+        <v>2.88880903337081</v>
       </c>
       <c r="J25">
-        <v>11.39032427816636</v>
+        <v>10.85799819038261</v>
       </c>
       <c r="K25">
-        <v>19.34038443936919</v>
+        <v>17.25846065383196</v>
       </c>
       <c r="L25">
-        <v>6.173741636918593</v>
+        <v>14.3515560088551</v>
       </c>
       <c r="M25">
-        <v>22.30862558070412</v>
+        <v>11.42047262691822</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.133535974919933</v>
       </c>
       <c r="O25">
-        <v>17.63823232426438</v>
+        <v>22.28846427298523</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>17.73326360214445</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
